--- a/DTB_Challenge_BigData/doc/execution_times.xlsx
+++ b/DTB_Challenge_BigData/doc/execution_times.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\daimler\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Concepts\DTB_Challenge_BigData\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC05E42-418E-4164-97EE-5E3C95B6E60F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FA19F0-B724-40A0-B840-4CE1DF21F1F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="9495" xr2:uid="{21ABD3B9-942D-4960-9473-549A2CD06E91}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="9495" activeTab="1" xr2:uid="{21ABD3B9-942D-4960-9473-549A2CD06E91}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Linux RedHat" sheetId="2" r:id="rId1"/>
+    <sheet name="iMac" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
   <si>
     <t>Start</t>
   </si>
@@ -117,6 +118,33 @@
   </si>
   <si>
     <t>Drugs Parsing, Mapping &amp; Broadcasting</t>
+  </si>
+  <si>
+    <t>consolidation.2019-04-20_00_43_10_061.log</t>
+  </si>
+  <si>
+    <t>consolidation.2019-04-20_00_27_17_718.log</t>
+  </si>
+  <si>
+    <t>consolidation.2019-04-19_23_44_48_070.log</t>
+  </si>
+  <si>
+    <t>consolidation.2019-04-19_23_32_26_109.log</t>
+  </si>
+  <si>
+    <t>consolidation.2019-04-19_23_23_07_354.log</t>
+  </si>
+  <si>
+    <t>consolidation.2019-04-19_23_12_53_930.log</t>
+  </si>
+  <si>
+    <t>consolidation.2019-04-19_22_38_57_940.log</t>
+  </si>
+  <si>
+    <t>consolidation.2019-04-19_23_00_55_884.log</t>
+  </si>
+  <si>
+    <t>consolidation.2019-04-20_00_17_01_319.log</t>
   </si>
 </sst>
 </file>
@@ -292,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -322,13 +350,13 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -340,9 +368,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -657,11 +692,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD89167-4AB3-494D-B822-89B1E5637C08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC70B9F-5FAD-40E9-91FA-80CA563EC26B}">
   <dimension ref="B1:U26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S22" sqref="B20:S22"/>
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,21 +738,21 @@
         <v>4</v>
       </c>
       <c r="C7" s="26"/>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27" t="s">
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27" t="s">
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
       <c r="M7" s="24" t="s">
         <v>3</v>
       </c>
@@ -731,56 +766,56 @@
       <c r="S7" s="26"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="21" t="s">
         <v>2</v>
       </c>
       <c r="P8" s="8"/>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="R8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="S8" s="7" t="s">
+      <c r="S8" s="21" t="s">
         <v>2</v>
       </c>
     </row>
@@ -868,7 +903,7 @@
         <v>0.72731358796296297</v>
       </c>
       <c r="I10" s="16">
-        <f t="shared" ref="I10" si="1">H10-G10</f>
+        <f t="shared" ref="I10:I18" si="1">H10-G10</f>
         <v>5.4664351851851922E-4</v>
       </c>
       <c r="J10" s="13">
@@ -878,7 +913,7 @@
         <v>0.7300646643518518</v>
       </c>
       <c r="L10" s="16">
-        <f t="shared" ref="L10" si="2">K10-J10</f>
+        <f t="shared" ref="L10:L18" si="2">K10-J10</f>
         <v>2.7510532407406529E-3</v>
       </c>
       <c r="M10" s="13">
@@ -888,7 +923,7 @@
         <v>0.73493107638888888</v>
       </c>
       <c r="O10" s="16">
-        <f t="shared" ref="O10" si="3">N10-M10</f>
+        <f t="shared" ref="O10:O18" si="3">N10-M10</f>
         <v>4.8663888888889062E-3</v>
       </c>
       <c r="P10" s="4"/>
@@ -899,7 +934,7 @@
         <v>0.73493111111111109</v>
       </c>
       <c r="S10" s="16">
-        <f t="shared" ref="S10" si="4">R10-Q10</f>
+        <f t="shared" ref="S10:S18" si="4">R10-Q10</f>
         <v>9.3500925925926737E-3</v>
       </c>
       <c r="U10" s="20"/>
@@ -928,7 +963,7 @@
         <v>0.73892909722222233</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" ref="I11:I18" si="5">H11-G11</f>
+        <f t="shared" si="1"/>
         <v>4.4400462962979059E-4</v>
       </c>
       <c r="J11" s="5">
@@ -938,7 +973,7 @@
         <v>0.74147212962962961</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" ref="L11:L18" si="6">K11-J11</f>
+        <f t="shared" si="2"/>
         <v>2.5430092592592102E-3</v>
       </c>
       <c r="M11" s="5">
@@ -948,7 +983,7 @@
         <v>0.74598796296296299</v>
       </c>
       <c r="O11" s="6">
-        <f t="shared" ref="O11:O18" si="7">N11-M11</f>
+        <f t="shared" si="3"/>
         <v>4.5158101851852095E-3</v>
       </c>
       <c r="P11" s="4"/>
@@ -959,7 +994,7 @@
         <v>0.74598798611111106</v>
       </c>
       <c r="S11" s="6">
-        <f t="shared" ref="S11:S18" si="8">R11-Q11</f>
+        <f t="shared" si="4"/>
         <v>8.8073611111110228E-3</v>
       </c>
       <c r="U11" s="20"/>
@@ -988,7 +1023,7 @@
         <v>0.75246493055555552</v>
       </c>
       <c r="I12" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>4.2806712962961679E-4</v>
       </c>
       <c r="J12" s="13">
@@ -998,7 +1033,7 @@
         <v>0.75532780092592589</v>
       </c>
       <c r="L12" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>2.8628472222221868E-3</v>
       </c>
       <c r="M12" s="13">
@@ -1008,7 +1043,7 @@
         <v>0.75956967592592595</v>
       </c>
       <c r="O12" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>4.2418171296296769E-3</v>
       </c>
       <c r="P12" s="4"/>
@@ -1019,7 +1054,7 @@
         <v>0.75956973379629622</v>
       </c>
       <c r="S12" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>8.6750231481480533E-3</v>
       </c>
       <c r="U12" s="20"/>
@@ -1048,7 +1083,7 @@
         <v>0.76489293981481488</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>4.2891203703709913E-4</v>
       </c>
       <c r="J13" s="5">
@@ -1058,7 +1093,7 @@
         <v>0.76840118055555562</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.5082060185186448E-3</v>
       </c>
       <c r="M13" s="5">
@@ -1068,7 +1103,7 @@
         <v>0.77285077546296288</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>4.4495601851851641E-3</v>
       </c>
       <c r="P13" s="4"/>
@@ -1079,7 +1114,7 @@
         <v>0.7728508101851852</v>
       </c>
       <c r="S13" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>9.6848611111112204E-3</v>
       </c>
       <c r="U13" s="20"/>
@@ -1108,7 +1143,7 @@
         <v>0.77480922453703693</v>
       </c>
       <c r="I14" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>5.7527777777766076E-4</v>
       </c>
       <c r="J14" s="13">
@@ -1118,7 +1153,7 @@
         <v>0.77845486111111117</v>
       </c>
       <c r="L14" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.6456134259259532E-3</v>
       </c>
       <c r="M14" s="13">
@@ -1128,7 +1163,7 @@
         <v>0.78323526620370376</v>
       </c>
       <c r="O14" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>4.7803703703704903E-3</v>
       </c>
       <c r="P14" s="4"/>
@@ -1139,7 +1174,7 @@
         <v>0.78323530092592586</v>
       </c>
       <c r="S14" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1.0218275462962834E-2</v>
       </c>
       <c r="U14" s="20"/>
@@ -1168,7 +1203,7 @@
         <v>0.78564601851851856</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>3.5594907407421328E-4</v>
       </c>
       <c r="J15" s="5">
@@ -1178,7 +1213,7 @@
         <v>0.78836160879629624</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>2.7155671296295036E-3</v>
       </c>
       <c r="M15" s="5">
@@ -1188,7 +1223,7 @@
         <v>0.79303240740740744</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>4.6707638888888736E-3</v>
       </c>
       <c r="P15" s="4"/>
@@ -1199,7 +1234,7 @@
         <v>0.79303370370370363</v>
       </c>
       <c r="S15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>9.0107986111109817E-3</v>
       </c>
       <c r="U15" s="20"/>
@@ -1228,7 +1263,7 @@
         <v>0.79757130787037045</v>
       </c>
       <c r="I16" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>4.0993055555560431E-4</v>
       </c>
       <c r="J16" s="13">
@@ -1238,7 +1273,7 @@
         <v>0.800440300925926</v>
       </c>
       <c r="L16" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>2.8689467592593054E-3</v>
       </c>
       <c r="M16" s="13">
@@ -1248,7 +1283,7 @@
         <v>0.80519219907407402</v>
       </c>
       <c r="O16" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>4.7518634259259285E-3</v>
       </c>
       <c r="P16" s="4"/>
@@ -1259,7 +1294,7 @@
         <v>0.80519223379629634</v>
       </c>
       <c r="S16" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>9.1792245370370118E-3</v>
       </c>
     </row>
@@ -1287,7 +1322,7 @@
         <v>0.80757525462962965</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>4.2118055555551148E-4</v>
       </c>
       <c r="J17" s="5">
@@ -1297,7 +1332,7 @@
         <v>0.8105953935185185</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.0201041666666484E-3</v>
       </c>
       <c r="M17" s="5">
@@ -1307,7 +1342,7 @@
         <v>0.81499768518518512</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>4.4022685185184374E-3</v>
       </c>
       <c r="P17" s="4"/>
@@ -1318,7 +1353,7 @@
         <v>0.81499770833333329</v>
       </c>
       <c r="S17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>9.1582407407407862E-3</v>
       </c>
     </row>
@@ -1346,7 +1381,7 @@
         <v>0.81685690972222214</v>
       </c>
       <c r="I18" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>3.9002314814795547E-4</v>
       </c>
       <c r="J18" s="13">
@@ -1356,7 +1391,7 @@
         <v>0.81997572916666661</v>
       </c>
       <c r="L18" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.1187962962963001E-3</v>
       </c>
       <c r="M18" s="13">
@@ -1366,7 +1401,7 @@
         <v>0.82465346064814815</v>
       </c>
       <c r="O18" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>4.67769675925922E-3</v>
       </c>
       <c r="P18" s="4"/>
@@ -1377,7 +1412,7 @@
         <v>0.82465348379629633</v>
       </c>
       <c r="S18" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>9.2751851851851086E-3</v>
       </c>
     </row>
@@ -1385,34 +1420,34 @@
       <c r="B20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="11">
         <f>MAX(F9:F18)</f>
         <v>1.2819791666667246E-3</v>
       </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="11">
         <f>MAX(I9:I18)</f>
         <v>5.7527777777766076E-4</v>
       </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23"/>
       <c r="L20" s="11">
         <f>MAX(L9:L18)</f>
         <v>3.6456134259259532E-3</v>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23"/>
       <c r="O20" s="11">
         <f>MAX(O9:O18)</f>
         <v>4.8663888888889062E-3</v>
       </c>
       <c r="P20" s="14"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="22"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="23"/>
       <c r="S20" s="11">
         <f>MAX(S9:S18)</f>
         <v>1.0218275462962834E-2</v>
@@ -1422,34 +1457,34 @@
       <c r="B21" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="15">
         <f>MIN(F10:F19)</f>
         <v>1.0515509259260147E-3</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
       <c r="I21" s="15">
         <f>MIN(I10:I19)</f>
         <v>3.5594907407421328E-4</v>
       </c>
-      <c r="J21" s="23"/>
-      <c r="K21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23"/>
       <c r="L21" s="15">
         <f>MIN(L10:L19)</f>
         <v>2.5430092592592102E-3</v>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="23"/>
       <c r="O21" s="15">
         <f>MIN(O10:O19)</f>
         <v>4.2418171296296769E-3</v>
       </c>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="23"/>
       <c r="S21" s="15">
         <f>MIN(S10:S19)</f>
         <v>8.6750231481480533E-3</v>
@@ -1459,34 +1494,34 @@
       <c r="B22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="11">
         <f>AVERAGE(F9:F18)</f>
         <v>1.1785543981481794E-3</v>
       </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
       <c r="I22" s="11">
         <f>AVERAGE(I9:I18)</f>
         <v>4.4173379629630638E-4</v>
       </c>
-      <c r="J22" s="23"/>
-      <c r="K22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23"/>
       <c r="L22" s="11">
         <f>AVERAGE(L9:L18)</f>
         <v>2.9816967592592447E-3</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="23"/>
       <c r="O22" s="11">
         <f>AVERAGE(O9:O18)</f>
         <v>4.5870219907407474E-3</v>
       </c>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="23"/>
       <c r="S22" s="11">
         <f>AVERAGE(S9:S18)</f>
         <v>9.2233425925925764E-3</v>
@@ -1510,6 +1545,916 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD89167-4AB3-494D-B822-89B1E5637C08}">
+  <dimension ref="A1:U43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="2.5703125" customWidth="1"/>
+    <col min="17" max="19" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="25"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="25"/>
+      <c r="S7" s="26"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.93588975694444443</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.93644062500000003</v>
+      </c>
+      <c r="F9" s="6">
+        <f>E9-D9</f>
+        <v>5.5086805555559781E-4</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.93644063657407406</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.93661087962962963</v>
+      </c>
+      <c r="I9" s="6">
+        <f>H9-G9</f>
+        <v>1.7024305555557451E-4</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.93661089120370367</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.93863425925925925</v>
+      </c>
+      <c r="L9" s="6">
+        <f>K9-J9</f>
+        <v>2.0233680555555855E-3</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.93863606481481476</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.94372614583333336</v>
+      </c>
+      <c r="O9" s="6">
+        <f>N9-M9</f>
+        <v>5.0900810185185996E-3</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="5">
+        <v>0.9358912037037036</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0.9437268518518519</v>
+      </c>
+      <c r="S9" s="6">
+        <f>R9-Q9</f>
+        <v>7.8356481481482998E-3</v>
+      </c>
+      <c r="U9" s="20"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="29">
+        <v>2</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="31">
+        <v>0.95109584490740751</v>
+      </c>
+      <c r="E10" s="31">
+        <v>0.95162782407407409</v>
+      </c>
+      <c r="F10" s="32">
+        <f t="shared" ref="F10:F18" si="0">E10-D10</f>
+        <v>5.3197916666658518E-4</v>
+      </c>
+      <c r="G10" s="31">
+        <v>0.95163194444444443</v>
+      </c>
+      <c r="H10" s="31">
+        <v>0.95179737268518527</v>
+      </c>
+      <c r="I10" s="32">
+        <f t="shared" ref="I10:I18" si="1">H10-G10</f>
+        <v>1.6542824074083917E-4</v>
+      </c>
+      <c r="J10" s="31">
+        <v>0.95179738425925919</v>
+      </c>
+      <c r="K10" s="31">
+        <v>0.95386179398148141</v>
+      </c>
+      <c r="L10" s="32">
+        <f t="shared" ref="L10:L18" si="2">K10-J10</f>
+        <v>2.0644097222222157E-3</v>
+      </c>
+      <c r="M10" s="31">
+        <v>0.95386180555555555</v>
+      </c>
+      <c r="N10" s="31">
+        <v>0.95898012731481475</v>
+      </c>
+      <c r="O10" s="32">
+        <f t="shared" ref="O10:O18" si="3">N10-M10</f>
+        <v>5.1183217592591923E-3</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="31">
+        <v>0.95109552083333337</v>
+      </c>
+      <c r="R10" s="31">
+        <v>0.95898013888888889</v>
+      </c>
+      <c r="S10" s="32">
+        <f t="shared" ref="S10:S18" si="4">R10-Q10</f>
+        <v>7.8846180555555145E-3</v>
+      </c>
+      <c r="U10" s="20"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.96086725694444441</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.96142361111111108</v>
+      </c>
+      <c r="F11" s="6">
+        <f>E11-D11</f>
+        <v>5.563541666666616E-4</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.96142025462962966</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.96157928240740731</v>
+      </c>
+      <c r="I11" s="6">
+        <f>H11-G11</f>
+        <v>1.5902777777765387E-4</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.96157929398148145</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.96370657407407412</v>
+      </c>
+      <c r="L11" s="6">
+        <f>K11-J11</f>
+        <v>2.1272800925926649E-3</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0.96370658564814804</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0.96729083333333332</v>
+      </c>
+      <c r="O11" s="6">
+        <f>N11-M11</f>
+        <v>3.5842476851852823E-3</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="5">
+        <v>0.96086695601851846</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0.96729084490740735</v>
+      </c>
+      <c r="S11" s="6">
+        <f>R11-Q11</f>
+        <v>6.4238888888888956E-3</v>
+      </c>
+      <c r="U11" s="20"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="29">
+        <v>4</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.96840219907407399</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.96891011574074071</v>
+      </c>
+      <c r="F12" s="32">
+        <f>E12-D12</f>
+        <v>5.0791666666671897E-4</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.96891012731481485</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0.96907127314814812</v>
+      </c>
+      <c r="I12" s="32">
+        <f>H12-G12</f>
+        <v>1.6114583333326493E-4</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0.96907128472222226</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0.97102189814814821</v>
+      </c>
+      <c r="L12" s="32">
+        <f>K12-J12</f>
+        <v>1.9506134259259511E-3</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0.97102190972222224</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0.97439064814814813</v>
+      </c>
+      <c r="O12" s="32">
+        <f>N12-M12</f>
+        <v>3.3687384259258879E-3</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="13">
+        <v>0.96840187499999997</v>
+      </c>
+      <c r="R12" s="13">
+        <v>0.97439065972222227</v>
+      </c>
+      <c r="S12" s="32">
+        <f>R12-Q12</f>
+        <v>5.9887847222223067E-3</v>
+      </c>
+      <c r="U12" s="20"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.97455765046296294</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.97509222222222214</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>5.3457175925919476E-4</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.97509223379629628</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.97525328703703706</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
+        <v>1.6105324074078275E-4</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.97525329861111121</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.97733096064814806</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="2"/>
+        <v>2.0776620370368537E-3</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0.97733097222222221</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.98085771990740744</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" si="3"/>
+        <v>3.5267476851852386E-3</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="5">
+        <v>0.97455731481481489</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0.98085773148148148</v>
+      </c>
+      <c r="S13" s="6">
+        <f t="shared" si="4"/>
+        <v>6.3004166666665862E-3</v>
+      </c>
+      <c r="U13" s="20"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="12">
+        <v>6</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.98121420138888882</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.98175674768518517</v>
+      </c>
+      <c r="F14" s="32">
+        <f t="shared" si="0"/>
+        <v>5.4254629629635343E-4</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.98175678240740749</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.9821351620370371</v>
+      </c>
+      <c r="I14" s="32">
+        <f t="shared" si="1"/>
+        <v>3.7837962962961047E-4</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.98213517361111113</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0.9856102546296297</v>
+      </c>
+      <c r="L14" s="32">
+        <f t="shared" si="2"/>
+        <v>3.4750810185185665E-3</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0.98561026620370373</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0.98944523148148145</v>
+      </c>
+      <c r="O14" s="32">
+        <f t="shared" si="3"/>
+        <v>3.8349652777777132E-3</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="13">
+        <v>0.98121386574074076</v>
+      </c>
+      <c r="R14" s="13">
+        <v>0.98944524305555559</v>
+      </c>
+      <c r="S14" s="32">
+        <f t="shared" si="4"/>
+        <v>8.231377314814825E-3</v>
+      </c>
+      <c r="U14" s="20"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="5">
+        <v>5.6597222222222222E-3</v>
+      </c>
+      <c r="E15" s="5">
+        <v>6.2093518518518522E-3</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
+        <v>5.4962962962962995E-4</v>
+      </c>
+      <c r="G15" s="5">
+        <v>6.2093981481481488E-3</v>
+      </c>
+      <c r="H15" s="5">
+        <v>6.3689583333333341E-3</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
+        <v>1.5956018518518533E-4</v>
+      </c>
+      <c r="J15" s="5">
+        <v>6.3689699074074074E-3</v>
+      </c>
+      <c r="K15" s="5">
+        <v>8.3122453703703709E-3</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="2"/>
+        <v>1.9432754629629635E-3</v>
+      </c>
+      <c r="M15" s="5">
+        <v>8.312256944444445E-3</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1.1820798611111112E-2</v>
+      </c>
+      <c r="O15" s="6">
+        <f t="shared" si="3"/>
+        <v>3.5085416666666668E-3</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="5">
+        <v>5.6614930555555559E-3</v>
+      </c>
+      <c r="R15" s="5">
+        <v>1.1820810185185186E-2</v>
+      </c>
+      <c r="S15" s="6">
+        <f t="shared" si="4"/>
+        <v>6.15931712962963E-3</v>
+      </c>
+      <c r="U15" s="20"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
+        <v>8</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="31">
+        <v>1.2704664351851851E-2</v>
+      </c>
+      <c r="E16" s="31">
+        <v>1.3238599537037037E-2</v>
+      </c>
+      <c r="F16" s="32">
+        <f t="shared" si="0"/>
+        <v>5.339351851851859E-4</v>
+      </c>
+      <c r="G16" s="31">
+        <v>1.3238611111111111E-2</v>
+      </c>
+      <c r="H16" s="31">
+        <v>1.3399340277777777E-2</v>
+      </c>
+      <c r="I16" s="32">
+        <f t="shared" si="1"/>
+        <v>1.6072916666666666E-4</v>
+      </c>
+      <c r="J16" s="31">
+        <v>1.3399351851851852E-2</v>
+      </c>
+      <c r="K16" s="31">
+        <v>1.5448171296296297E-2</v>
+      </c>
+      <c r="L16" s="32">
+        <f t="shared" si="2"/>
+        <v>2.0488194444444451E-3</v>
+      </c>
+      <c r="M16" s="31">
+        <v>1.5448182870370371E-2</v>
+      </c>
+      <c r="N16" s="31">
+        <v>1.8955046296296296E-2</v>
+      </c>
+      <c r="O16" s="32">
+        <f t="shared" si="3"/>
+        <v>3.5068634259259254E-3</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="13">
+        <v>1.2704363425925925E-2</v>
+      </c>
+      <c r="R16" s="13">
+        <v>1.895505787037037E-2</v>
+      </c>
+      <c r="S16" s="32">
+        <f t="shared" si="4"/>
+        <v>6.2506944444444459E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2.3902314814814817E-2</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2.4457187500000001E-2</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
+        <v>5.5487268518518429E-4</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2.4457199074074076E-2</v>
+      </c>
+      <c r="H17" s="5">
+        <v>2.4616342592592589E-2</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="1"/>
+        <v>1.5914351851851333E-4</v>
+      </c>
+      <c r="J17" s="5">
+        <v>2.4616354166666663E-2</v>
+      </c>
+      <c r="K17" s="5">
+        <v>2.6597164351851856E-2</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="2"/>
+        <v>1.9808101851851931E-3</v>
+      </c>
+      <c r="M17" s="5">
+        <v>2.659717592592593E-2</v>
+      </c>
+      <c r="N17" s="5">
+        <v>2.9977534722222223E-2</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" si="3"/>
+        <v>3.3803587962962928E-3</v>
+      </c>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="5">
+        <v>2.3901956018518519E-2</v>
+      </c>
+      <c r="R17" s="5">
+        <v>2.9977546296296297E-2</v>
+      </c>
+      <c r="S17" s="6">
+        <f t="shared" si="4"/>
+        <v>6.0755902777777787E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
+        <v>10</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="13"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="11">
+        <f>MAX(F9:F18)</f>
+        <v>5.563541666666616E-4</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="11">
+        <f>MAX(I9:I18)</f>
+        <v>3.7837962962961047E-4</v>
+      </c>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="11">
+        <f>MAX(L9:L18)</f>
+        <v>3.4750810185185665E-3</v>
+      </c>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="11">
+        <f>MAX(O9:O18)</f>
+        <v>5.1183217592591923E-3</v>
+      </c>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="11">
+        <f>MAX(S9:S18)</f>
+        <v>8.231377314814825E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="15">
+        <f>MIN(F10:F19)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="15">
+        <f>MIN(I10:I19)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="15">
+        <f>MIN(L10:L19)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="22"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="15">
+        <f>MIN(O10:O19)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="15">
+        <f>MIN(S10:S19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="11">
+        <f>AVERAGE(F9:F18)</f>
+        <v>4.862673611111112E-4</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="11">
+        <f>AVERAGE(I9:I18)</f>
+        <v>1.674710648148091E-4</v>
+      </c>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="11">
+        <f>AVERAGE(L9:L18)</f>
+        <v>1.9691319444444439E-3</v>
+      </c>
+      <c r="M22" s="22"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="11">
+        <f>AVERAGE(O9:O18)</f>
+        <v>3.4918865740740795E-3</v>
+      </c>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="11">
+        <f>AVERAGE(S9:S18)</f>
+        <v>6.1150335648148283E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="I23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="S23" s="9"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="19"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H30" s="20"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H31" s="20"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="20"/>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="20"/>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="20"/>
+    </row>
+    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="20"/>
+    </row>
+    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="20"/>
+    </row>
+    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="20"/>
+    </row>
+    <row r="41" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H41" s="20"/>
+    </row>
+    <row r="42" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H42" s="20"/>
+    </row>
+    <row r="43" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H43" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M22:N22"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="Q7:S7"/>
@@ -1526,13 +2471,11 @@
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M22:N22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F9" evalError="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/DTB_Challenge_BigData/doc/execution_times.xlsx
+++ b/DTB_Challenge_BigData/doc/execution_times.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Concepts\DTB_Challenge_BigData\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FA19F0-B724-40A0-B840-4CE1DF21F1F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FE90E3-526A-49D0-9607-7A6BCEFFD262}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="9495" activeTab="1" xr2:uid="{21ABD3B9-942D-4960-9473-549A2CD06E91}"/>
   </bookViews>
@@ -353,7 +353,14 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -362,22 +369,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -734,36 +734,36 @@
       <c r="D5" s="2"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28" t="s">
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28" t="s">
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="24" t="s">
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="25"/>
-      <c r="O7" s="26"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="30"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="24" t="s">
+      <c r="Q7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="25"/>
-      <c r="S7" s="26"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="30"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
@@ -1420,34 +1420,34 @@
       <c r="B20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="27"/>
-      <c r="E20" s="23"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="11">
         <f>MAX(F9:F18)</f>
         <v>1.2819791666667246E-3</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="11">
         <f>MAX(I9:I18)</f>
         <v>5.7527777777766076E-4</v>
       </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="23"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="28"/>
       <c r="L20" s="11">
         <f>MAX(L9:L18)</f>
         <v>3.6456134259259532E-3</v>
       </c>
-      <c r="M20" s="22"/>
-      <c r="N20" s="23"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="28"/>
       <c r="O20" s="11">
         <f>MAX(O9:O18)</f>
         <v>4.8663888888889062E-3</v>
       </c>
       <c r="P20" s="14"/>
       <c r="Q20" s="27"/>
-      <c r="R20" s="23"/>
+      <c r="R20" s="28"/>
       <c r="S20" s="11">
         <f>MAX(S9:S18)</f>
         <v>1.0218275462962834E-2</v>
@@ -1457,34 +1457,34 @@
       <c r="B21" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="22"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="27"/>
-      <c r="E21" s="23"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="15">
         <f>MIN(F10:F19)</f>
         <v>1.0515509259260147E-3</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="23"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="15">
         <f>MIN(I10:I19)</f>
         <v>3.5594907407421328E-4</v>
       </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="23"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="28"/>
       <c r="L21" s="15">
         <f>MIN(L10:L19)</f>
         <v>2.5430092592592102E-3</v>
       </c>
-      <c r="M21" s="22"/>
-      <c r="N21" s="23"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="28"/>
       <c r="O21" s="15">
         <f>MIN(O10:O19)</f>
         <v>4.2418171296296769E-3</v>
       </c>
-      <c r="P21" s="22"/>
+      <c r="P21" s="26"/>
       <c r="Q21" s="27"/>
-      <c r="R21" s="23"/>
+      <c r="R21" s="28"/>
       <c r="S21" s="15">
         <f>MIN(S10:S19)</f>
         <v>8.6750231481480533E-3</v>
@@ -1494,34 +1494,34 @@
       <c r="B22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="27"/>
-      <c r="E22" s="23"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="11">
         <f>AVERAGE(F9:F18)</f>
         <v>1.1785543981481794E-3</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="11">
         <f>AVERAGE(I9:I18)</f>
         <v>4.4173379629630638E-4</v>
       </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="23"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="28"/>
       <c r="L22" s="11">
         <f>AVERAGE(L9:L18)</f>
         <v>2.9816967592592447E-3</v>
       </c>
-      <c r="M22" s="22"/>
-      <c r="N22" s="23"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="28"/>
       <c r="O22" s="11">
         <f>AVERAGE(O9:O18)</f>
         <v>4.5870219907407474E-3</v>
       </c>
-      <c r="P22" s="22"/>
+      <c r="P22" s="26"/>
       <c r="Q22" s="27"/>
-      <c r="R22" s="23"/>
+      <c r="R22" s="28"/>
       <c r="S22" s="11">
         <f>AVERAGE(S9:S18)</f>
         <v>9.2233425925925764E-3</v>
@@ -1545,27 +1545,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="Q20:R20"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="P22:R22"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="Q7:S7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1576,9 +1576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD89167-4AB3-494D-B822-89B1E5637C08}">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1615,36 +1613,36 @@
       <c r="D5" s="2"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28" t="s">
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28" t="s">
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="24" t="s">
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="25"/>
-      <c r="O7" s="26"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="30"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="24" t="s">
+      <c r="Q7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="25"/>
-      <c r="S7" s="26"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="30"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
@@ -1762,60 +1760,60 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="29">
+      <c r="B10" s="22">
         <v>2</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="24">
         <v>0.95109584490740751</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="24">
         <v>0.95162782407407409</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="25">
         <f t="shared" ref="F10:F18" si="0">E10-D10</f>
         <v>5.3197916666658518E-4</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="24">
         <v>0.95163194444444443</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="24">
         <v>0.95179737268518527</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="25">
         <f t="shared" ref="I10:I18" si="1">H10-G10</f>
         <v>1.6542824074083917E-4</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="24">
         <v>0.95179738425925919</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K10" s="24">
         <v>0.95386179398148141</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="25">
         <f t="shared" ref="L10:L18" si="2">K10-J10</f>
         <v>2.0644097222222157E-3</v>
       </c>
-      <c r="M10" s="31">
+      <c r="M10" s="24">
         <v>0.95386180555555555</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="24">
         <v>0.95898012731481475</v>
       </c>
-      <c r="O10" s="32">
+      <c r="O10" s="25">
         <f t="shared" ref="O10:O18" si="3">N10-M10</f>
         <v>5.1183217592591923E-3</v>
       </c>
       <c r="P10" s="4"/>
-      <c r="Q10" s="31">
+      <c r="Q10" s="24">
         <v>0.95109552083333337</v>
       </c>
-      <c r="R10" s="31">
+      <c r="R10" s="24">
         <v>0.95898013888888889</v>
       </c>
-      <c r="S10" s="32">
+      <c r="S10" s="25">
         <f t="shared" ref="S10:S18" si="4">R10-Q10</f>
         <v>7.8846180555555145E-3</v>
       </c>
@@ -1882,10 +1880,10 @@
       <c r="U11" s="20"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="29">
+      <c r="B12" s="22">
         <v>4</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="13">
@@ -1894,7 +1892,7 @@
       <c r="E12" s="13">
         <v>0.96891011574074071</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="25">
         <f>E12-D12</f>
         <v>5.0791666666671897E-4</v>
       </c>
@@ -1904,7 +1902,7 @@
       <c r="H12" s="13">
         <v>0.96907127314814812</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="25">
         <f>H12-G12</f>
         <v>1.6114583333326493E-4</v>
       </c>
@@ -1914,7 +1912,7 @@
       <c r="K12" s="13">
         <v>0.97102189814814821</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="25">
         <f>K12-J12</f>
         <v>1.9506134259259511E-3</v>
       </c>
@@ -1924,7 +1922,7 @@
       <c r="N12" s="13">
         <v>0.97439064814814813</v>
       </c>
-      <c r="O12" s="32">
+      <c r="O12" s="25">
         <f>N12-M12</f>
         <v>3.3687384259258879E-3</v>
       </c>
@@ -1935,7 +1933,7 @@
       <c r="R12" s="13">
         <v>0.97439065972222227</v>
       </c>
-      <c r="S12" s="32">
+      <c r="S12" s="25">
         <f>R12-Q12</f>
         <v>5.9887847222223067E-3</v>
       </c>
@@ -2014,7 +2012,7 @@
       <c r="E14" s="13">
         <v>0.98175674768518517</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="25">
         <f t="shared" si="0"/>
         <v>5.4254629629635343E-4</v>
       </c>
@@ -2024,7 +2022,7 @@
       <c r="H14" s="13">
         <v>0.9821351620370371</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="25">
         <f t="shared" si="1"/>
         <v>3.7837962962961047E-4</v>
       </c>
@@ -2034,7 +2032,7 @@
       <c r="K14" s="13">
         <v>0.9856102546296297</v>
       </c>
-      <c r="L14" s="32">
+      <c r="L14" s="25">
         <f t="shared" si="2"/>
         <v>3.4750810185185665E-3</v>
       </c>
@@ -2044,7 +2042,7 @@
       <c r="N14" s="13">
         <v>0.98944523148148145</v>
       </c>
-      <c r="O14" s="32">
+      <c r="O14" s="25">
         <f t="shared" si="3"/>
         <v>3.8349652777777132E-3</v>
       </c>
@@ -2055,7 +2053,7 @@
       <c r="R14" s="13">
         <v>0.98944524305555559</v>
       </c>
-      <c r="S14" s="32">
+      <c r="S14" s="25">
         <f t="shared" si="4"/>
         <v>8.231377314814825E-3</v>
       </c>
@@ -2125,46 +2123,46 @@
       <c r="B16" s="12">
         <v>8</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="24">
         <v>1.2704664351851851E-2</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="24">
         <v>1.3238599537037037E-2</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="25">
         <f t="shared" si="0"/>
         <v>5.339351851851859E-4</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="24">
         <v>1.3238611111111111E-2</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="24">
         <v>1.3399340277777777E-2</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16" s="25">
         <f t="shared" si="1"/>
         <v>1.6072916666666666E-4</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="24">
         <v>1.3399351851851852E-2</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="24">
         <v>1.5448171296296297E-2</v>
       </c>
-      <c r="L16" s="32">
+      <c r="L16" s="25">
         <f t="shared" si="2"/>
         <v>2.0488194444444451E-3</v>
       </c>
-      <c r="M16" s="31">
+      <c r="M16" s="24">
         <v>1.5448182870370371E-2</v>
       </c>
-      <c r="N16" s="31">
+      <c r="N16" s="24">
         <v>1.8955046296296296E-2</v>
       </c>
-      <c r="O16" s="32">
+      <c r="O16" s="25">
         <f t="shared" si="3"/>
         <v>3.5068634259259254E-3</v>
       </c>
@@ -2175,7 +2173,7 @@
       <c r="R16" s="13">
         <v>1.895505787037037E-2</v>
       </c>
-      <c r="S16" s="32">
+      <c r="S16" s="25">
         <f t="shared" si="4"/>
         <v>6.2506944444444459E-3</v>
       </c>
@@ -2244,70 +2242,90 @@
         <v>10</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="32">
+      <c r="D18" s="13">
+        <v>0.50224813657407408</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.50273181712962967</v>
+      </c>
+      <c r="F18" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="32">
+        <v>4.8368055555558787E-4</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.5027318287037037</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.5031134606481481</v>
+      </c>
+      <c r="I18" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="32">
+        <v>3.8163194444440496E-4</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.50311347222222225</v>
+      </c>
+      <c r="K18" s="13">
+        <v>0.50655140046296299</v>
+      </c>
+      <c r="L18" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="13"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="6">
+        <v>3.4379282407407397E-3</v>
+      </c>
+      <c r="M18" s="13">
+        <v>0.50655141203703702</v>
+      </c>
+      <c r="N18" s="24">
+        <v>0.5103799537037037</v>
+      </c>
+      <c r="O18" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.8285416666666849E-3</v>
       </c>
       <c r="P18" s="4"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="32">
+      <c r="Q18" s="13">
+        <v>0.5022477662037037</v>
+      </c>
+      <c r="R18" s="13">
+        <v>0.51037996527777774</v>
+      </c>
+      <c r="S18" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.1321990740740313E-3</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="27"/>
-      <c r="E20" s="23"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="11">
         <f>MAX(F9:F18)</f>
         <v>5.563541666666616E-4</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="11">
         <f>MAX(I9:I18)</f>
-        <v>3.7837962962961047E-4</v>
-      </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="23"/>
+        <v>3.8163194444440496E-4</v>
+      </c>
+      <c r="J20" s="26"/>
+      <c r="K20" s="28"/>
       <c r="L20" s="11">
         <f>MAX(L9:L18)</f>
         <v>3.4750810185185665E-3</v>
       </c>
-      <c r="M20" s="22"/>
-      <c r="N20" s="23"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="28"/>
       <c r="O20" s="11">
         <f>MAX(O9:O18)</f>
         <v>5.1183217592591923E-3</v>
       </c>
       <c r="P20" s="14"/>
       <c r="Q20" s="27"/>
-      <c r="R20" s="23"/>
+      <c r="R20" s="28"/>
       <c r="S20" s="11">
         <f>MAX(S9:S18)</f>
         <v>8.231377314814825E-3</v>
@@ -2317,74 +2335,74 @@
       <c r="B21" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="22"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="27"/>
-      <c r="E21" s="23"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="15">
         <f>MIN(F10:F19)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="23"/>
+        <v>4.8368055555558787E-4</v>
+      </c>
+      <c r="G21" s="26"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="15">
         <f>MIN(I10:I19)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="23"/>
+        <v>1.5902777777765387E-4</v>
+      </c>
+      <c r="J21" s="26"/>
+      <c r="K21" s="28"/>
       <c r="L21" s="15">
         <f>MIN(L10:L19)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="22"/>
-      <c r="N21" s="23"/>
+        <v>1.9432754629629635E-3</v>
+      </c>
+      <c r="M21" s="26"/>
+      <c r="N21" s="28"/>
       <c r="O21" s="15">
         <f>MIN(O10:O19)</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="22"/>
+        <v>3.3687384259258879E-3</v>
+      </c>
+      <c r="P21" s="26"/>
       <c r="Q21" s="27"/>
-      <c r="R21" s="23"/>
+      <c r="R21" s="28"/>
       <c r="S21" s="15">
         <f>MIN(S10:S19)</f>
-        <v>0</v>
+        <v>5.9887847222223067E-3</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="27"/>
-      <c r="E22" s="23"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="11">
         <f>AVERAGE(F9:F18)</f>
-        <v>4.862673611111112E-4</v>
-      </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
+        <v>5.3463541666667002E-4</v>
+      </c>
+      <c r="G22" s="26"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="11">
         <f>AVERAGE(I9:I18)</f>
-        <v>1.674710648148091E-4</v>
-      </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="23"/>
+        <v>2.056342592592496E-4</v>
+      </c>
+      <c r="J22" s="26"/>
+      <c r="K22" s="28"/>
       <c r="L22" s="11">
         <f>AVERAGE(L9:L18)</f>
-        <v>1.9691319444444439E-3</v>
-      </c>
-      <c r="M22" s="22"/>
-      <c r="N22" s="23"/>
+        <v>2.312924768518518E-3</v>
+      </c>
+      <c r="M22" s="26"/>
+      <c r="N22" s="28"/>
       <c r="O22" s="11">
         <f>AVERAGE(O9:O18)</f>
-        <v>3.4918865740740795E-3</v>
-      </c>
-      <c r="P22" s="22"/>
+        <v>3.874740740740748E-3</v>
+      </c>
+      <c r="P22" s="26"/>
       <c r="Q22" s="27"/>
-      <c r="R22" s="23"/>
+      <c r="R22" s="28"/>
       <c r="S22" s="11">
         <f>AVERAGE(S9:S18)</f>
-        <v>6.1150335648148283E-3</v>
+        <v>6.9282534722222315E-3</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
@@ -2450,11 +2468,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M22:N22"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="Q7:S7"/>
@@ -2471,6 +2484,11 @@
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M22:N22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DTB_Challenge_BigData/doc/execution_times.xlsx
+++ b/DTB_Challenge_BigData/doc/execution_times.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Concepts\DTB_Challenge_BigData\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FE90E3-526A-49D0-9607-7A6BCEFFD262}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03C8FC3-522D-45CA-85C8-74EF6D1FDB22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="9495" activeTab="1" xr2:uid="{21ABD3B9-942D-4960-9473-549A2CD06E91}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="9495" xr2:uid="{21ABD3B9-942D-4960-9473-549A2CD06E91}"/>
   </bookViews>
   <sheets>
-    <sheet name="Linux RedHat" sheetId="2" r:id="rId1"/>
-    <sheet name="iMac" sheetId="1" r:id="rId2"/>
+    <sheet name="Windows 10" sheetId="3" r:id="rId1"/>
+    <sheet name="Linux RedHat" sheetId="2" r:id="rId2"/>
+    <sheet name="iMac" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="53">
   <si>
     <t>Start</t>
   </si>
@@ -145,6 +146,51 @@
   </si>
   <si>
     <t>consolidation.2019-04-20_00_17_01_319.log</t>
+  </si>
+  <si>
+    <t>Test Executions - Windows 10</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>16 GB RAM</t>
+  </si>
+  <si>
+    <t>Machine details:</t>
+  </si>
+  <si>
+    <t>SAMSUNG MZ7PD256HCGM/000H7 (256GB SATA III 2.5)</t>
+  </si>
+  <si>
+    <t>Windows 10 64 bits</t>
+  </si>
+  <si>
+    <t>iMac 2017</t>
+  </si>
+  <si>
+    <t>16 GB RAM (2400 MHz DD4)</t>
+  </si>
+  <si>
+    <t>SSD 500 GB</t>
+  </si>
+  <si>
+    <t>4 x VMs</t>
+  </si>
+  <si>
+    <t>Intel(R) Xeon(R) CPU E5520 @ 2.27 GHz, virtualizing 2 cores</t>
+  </si>
+  <si>
+    <t>Intel Core i5 / 4300 CPU @ 1.90 GHz (4 cores)</t>
+  </si>
+  <si>
+    <t>Intel Core i5 @ 3.4 GHz (4 cores)</t>
+  </si>
+  <si>
+    <t>consolidation.2019-04-19_20_03_14_424.log</t>
+  </si>
+  <si>
+    <t>consolidation.2019-04-20_12_09_06_409.log</t>
   </si>
 </sst>
 </file>
@@ -320,7 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -357,6 +403,21 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -366,18 +427,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -692,11 +743,773 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B432B7A5-BE74-44BD-9030-2D09A2CC0B90}">
+  <dimension ref="A1:U38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="2.5703125" customWidth="1"/>
+    <col min="17" max="19" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="28"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="28"/>
+      <c r="S7" s="29"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.80107535879629632</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.8021166666666667</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" ref="F9:F18" si="0">E9-D9</f>
+        <v>1.0413078703703782E-3</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.8021166666666667</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.80318171296296292</v>
+      </c>
+      <c r="I9" s="6">
+        <f>H9-G9</f>
+        <v>1.0650462962962237E-3</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.80318189814814822</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.81561875000000006</v>
+      </c>
+      <c r="L9" s="6">
+        <f>K9-J9</f>
+        <v>1.2436851851851838E-2</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.81561875000000006</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.83558361111111112</v>
+      </c>
+      <c r="O9" s="6">
+        <f>N9-M9</f>
+        <v>1.9964861111111065E-2</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="5">
+        <v>0.80107440972222221</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0.83558361111111112</v>
+      </c>
+      <c r="S9" s="6">
+        <f>R9-Q9</f>
+        <v>3.450920138888891E-2</v>
+      </c>
+      <c r="U9" s="20"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="12">
+        <v>2</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.48198968749999999</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.48294159722222219</v>
+      </c>
+      <c r="F10" s="16">
+        <f>E10-D10</f>
+        <v>9.5190972222219949E-4</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.48294162037037042</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.4837615393518519</v>
+      </c>
+      <c r="I10" s="16">
+        <f>H10-G10</f>
+        <v>8.1991898148148223E-4</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.4837615393518519</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0.49216361111111112</v>
+      </c>
+      <c r="L10" s="16">
+        <f>K10-J10</f>
+        <v>8.402071759259222E-3</v>
+      </c>
+      <c r="M10" s="13">
+        <v>0.49216361111111112</v>
+      </c>
+      <c r="N10" s="13">
+        <v>0.50632415509259265</v>
+      </c>
+      <c r="O10" s="16">
+        <f>N10-M10</f>
+        <v>1.4160543981481533E-2</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="13">
+        <v>0.48198871527777776</v>
+      </c>
+      <c r="R10" s="13">
+        <v>0.50632416666666669</v>
+      </c>
+      <c r="S10" s="16">
+        <f>R10-Q10</f>
+        <v>2.4335451388888929E-2</v>
+      </c>
+      <c r="U10" s="20"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6">
+        <f t="shared" ref="I10:I18" si="1">H11-G11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6">
+        <f t="shared" ref="L10:L18" si="2">K11-J11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="6">
+        <f t="shared" ref="O10:O18" si="3">N11-M11</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="6">
+        <f t="shared" ref="S10:S18" si="4">R11-Q11</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="20"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="12">
+        <v>4</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="20"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="20"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="12">
+        <v>6</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="20"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="20"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
+        <v>8</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
+        <v>10</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="11">
+        <f>MAX(F9:F18)</f>
+        <v>1.0413078703703782E-3</v>
+      </c>
+      <c r="G20" s="31"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="11">
+        <f>MAX(I9:I18)</f>
+        <v>1.0650462962962237E-3</v>
+      </c>
+      <c r="J20" s="31"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="11">
+        <f>MAX(L9:L18)</f>
+        <v>1.2436851851851838E-2</v>
+      </c>
+      <c r="M20" s="31"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="11">
+        <f>MAX(O9:O18)</f>
+        <v>1.9964861111111065E-2</v>
+      </c>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="11">
+        <f>MAX(S9:S18)</f>
+        <v>3.450920138888891E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="15">
+        <f>MIN(F10:F19)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="31"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="15">
+        <f>MIN(I10:I19)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="31"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="15">
+        <f>MIN(L10:L19)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="31"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="15">
+        <f>MIN(O10:O19)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="15">
+        <f>MIN(S10:S19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="11">
+        <f>AVERAGE(F9:F18)</f>
+        <v>1.9932175925925776E-4</v>
+      </c>
+      <c r="G22" s="31"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="11">
+        <f>AVERAGE(I9:I18)</f>
+        <v>1.8849652777777059E-4</v>
+      </c>
+      <c r="J22" s="31"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="11">
+        <f>AVERAGE(L9:L18)</f>
+        <v>2.0838923611111058E-3</v>
+      </c>
+      <c r="M22" s="31"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="11">
+        <f>AVERAGE(O9:O18)</f>
+        <v>3.4125405092592597E-3</v>
+      </c>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="11">
+        <f>AVERAGE(S9:S18)</f>
+        <v>5.8844652777777836E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="S23" s="9"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="20"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="35"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="35"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="35"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="35"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H30" s="35"/>
+      <c r="I30" s="20"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H31" s="35"/>
+      <c r="I31" s="20"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H32" s="35"/>
+      <c r="I32" s="20"/>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="H33" s="35"/>
+      <c r="I33" s="20"/>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="20"/>
+    </row>
+    <row r="36" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G36" s="35"/>
+    </row>
+    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G37" s="35"/>
+    </row>
+    <row r="38" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G38" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC70B9F-5FAD-40E9-91FA-80CA563EC26B}">
-  <dimension ref="B1:U26"/>
+  <dimension ref="B1:U33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,36 +1547,36 @@
       <c r="D5" s="2"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31" t="s">
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="29" t="s">
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="32"/>
-      <c r="O7" s="30"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="29"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="29" t="s">
+      <c r="Q7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="32"/>
-      <c r="S7" s="30"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="29"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
@@ -1420,34 +2233,34 @@
       <c r="B20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="11">
         <f>MAX(F9:F18)</f>
         <v>1.2819791666667246E-3</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="28"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="33"/>
       <c r="I20" s="11">
         <f>MAX(I9:I18)</f>
         <v>5.7527777777766076E-4</v>
       </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="28"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="33"/>
       <c r="L20" s="11">
         <f>MAX(L9:L18)</f>
         <v>3.6456134259259532E-3</v>
       </c>
-      <c r="M20" s="26"/>
-      <c r="N20" s="28"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="33"/>
       <c r="O20" s="11">
         <f>MAX(O9:O18)</f>
         <v>4.8663888888889062E-3</v>
       </c>
       <c r="P20" s="14"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="28"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="33"/>
       <c r="S20" s="11">
         <f>MAX(S9:S18)</f>
         <v>1.0218275462962834E-2</v>
@@ -1457,34 +2270,34 @@
       <c r="B21" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="15">
         <f>MIN(F10:F19)</f>
         <v>1.0515509259260147E-3</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="28"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="33"/>
       <c r="I21" s="15">
         <f>MIN(I10:I19)</f>
         <v>3.5594907407421328E-4</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="28"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="33"/>
       <c r="L21" s="15">
         <f>MIN(L10:L19)</f>
         <v>2.5430092592592102E-3</v>
       </c>
-      <c r="M21" s="26"/>
-      <c r="N21" s="28"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="33"/>
       <c r="O21" s="15">
         <f>MIN(O10:O19)</f>
         <v>4.2418171296296769E-3</v>
       </c>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="28"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="33"/>
       <c r="S21" s="15">
         <f>MIN(S10:S19)</f>
         <v>8.6750231481480533E-3</v>
@@ -1494,34 +2307,34 @@
       <c r="B22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="11">
         <f>AVERAGE(F9:F18)</f>
         <v>1.1785543981481794E-3</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="28"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="33"/>
       <c r="I22" s="11">
         <f>AVERAGE(I9:I18)</f>
         <v>4.4173379629630638E-4</v>
       </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="28"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="11">
         <f>AVERAGE(L9:L18)</f>
         <v>2.9816967592592447E-3</v>
       </c>
-      <c r="M22" s="26"/>
-      <c r="N22" s="28"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="33"/>
       <c r="O22" s="11">
         <f>AVERAGE(O9:O18)</f>
         <v>4.5870219907407474E-3</v>
       </c>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="28"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="33"/>
       <c r="S22" s="11">
         <f>AVERAGE(S9:S18)</f>
         <v>9.2233425925925764E-3</v>
@@ -1534,49 +2347,74 @@
       <c r="S23" s="9"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="B25" s="34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="19" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="19" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="P21:R21"/>
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="M7:O7"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="P22:R22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD89167-4AB3-494D-B822-89B1E5637C08}">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1613,36 +2451,36 @@
       <c r="D5" s="2"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31" t="s">
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="29" t="s">
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="32"/>
-      <c r="O7" s="30"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="29"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="29" t="s">
+      <c r="Q7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="32"/>
-      <c r="S7" s="30"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="29"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
@@ -2298,34 +3136,34 @@
       <c r="B20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="11">
         <f>MAX(F9:F18)</f>
         <v>5.563541666666616E-4</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="28"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="33"/>
       <c r="I20" s="11">
         <f>MAX(I9:I18)</f>
         <v>3.8163194444440496E-4</v>
       </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="28"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="33"/>
       <c r="L20" s="11">
         <f>MAX(L9:L18)</f>
         <v>3.4750810185185665E-3</v>
       </c>
-      <c r="M20" s="26"/>
-      <c r="N20" s="28"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="33"/>
       <c r="O20" s="11">
         <f>MAX(O9:O18)</f>
         <v>5.1183217592591923E-3</v>
       </c>
       <c r="P20" s="14"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="28"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="33"/>
       <c r="S20" s="11">
         <f>MAX(S9:S18)</f>
         <v>8.231377314814825E-3</v>
@@ -2335,34 +3173,34 @@
       <c r="B21" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="15">
         <f>MIN(F10:F19)</f>
         <v>4.8368055555558787E-4</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="28"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="33"/>
       <c r="I21" s="15">
         <f>MIN(I10:I19)</f>
         <v>1.5902777777765387E-4</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="28"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="33"/>
       <c r="L21" s="15">
         <f>MIN(L10:L19)</f>
         <v>1.9432754629629635E-3</v>
       </c>
-      <c r="M21" s="26"/>
-      <c r="N21" s="28"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="33"/>
       <c r="O21" s="15">
         <f>MIN(O10:O19)</f>
         <v>3.3687384259258879E-3</v>
       </c>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="28"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="33"/>
       <c r="S21" s="15">
         <f>MIN(S10:S19)</f>
         <v>5.9887847222223067E-3</v>
@@ -2372,34 +3210,34 @@
       <c r="B22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="11">
         <f>AVERAGE(F9:F18)</f>
         <v>5.3463541666667002E-4</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="28"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="33"/>
       <c r="I22" s="11">
         <f>AVERAGE(I9:I18)</f>
         <v>2.056342592592496E-4</v>
       </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="28"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="11">
         <f>AVERAGE(L9:L18)</f>
         <v>2.312924768518518E-3</v>
       </c>
-      <c r="M22" s="26"/>
-      <c r="N22" s="28"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="33"/>
       <c r="O22" s="11">
         <f>AVERAGE(O9:O18)</f>
         <v>3.874740740740748E-3</v>
       </c>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="28"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="33"/>
       <c r="S22" s="11">
         <f>AVERAGE(S9:S18)</f>
         <v>6.9282534722222315E-3</v>
@@ -2411,17 +3249,33 @@
       <c r="O23" s="9"/>
       <c r="S23" s="9"/>
     </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="34" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="19"/>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
       <c r="H26" s="20"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="H27" s="20"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="H28" s="20"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H29" s="20"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
@@ -2468,6 +3322,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M22:N22"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="Q7:S7"/>
@@ -2484,11 +3343,6 @@
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M22:N22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DTB_Challenge_BigData/doc/execution_times.xlsx
+++ b/DTB_Challenge_BigData/doc/execution_times.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Concepts\DTB_Challenge_BigData\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03C8FC3-522D-45CA-85C8-74EF6D1FDB22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42302D2-5122-45E5-ADE1-37B068843702}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="9495" xr2:uid="{21ABD3B9-942D-4960-9473-549A2CD06E91}"/>
   </bookViews>
   <sheets>
-    <sheet name="Windows 10" sheetId="3" r:id="rId1"/>
-    <sheet name="Linux RedHat" sheetId="2" r:id="rId2"/>
-    <sheet name="iMac" sheetId="1" r:id="rId3"/>
+    <sheet name="Statistics" sheetId="5" r:id="rId1"/>
+    <sheet name="Windows 10" sheetId="3" r:id="rId2"/>
+    <sheet name="Linux RedHat Cluster" sheetId="2" r:id="rId3"/>
+    <sheet name="iMac" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="68">
   <si>
     <t>Start</t>
   </si>
@@ -187,10 +188,55 @@
     <t>Intel Core i5 @ 3.4 GHz (4 cores)</t>
   </si>
   <si>
-    <t>consolidation.2019-04-19_20_03_14_424.log</t>
-  </si>
-  <si>
     <t>consolidation.2019-04-20_12_09_06_409.log</t>
+  </si>
+  <si>
+    <t>consolidation.2019-04-20_12_14_56_830.log</t>
+  </si>
+  <si>
+    <t>consolidation.2019-04-19_23_51_48_770.log</t>
+  </si>
+  <si>
+    <t>consolidation.2019-04-20_00_41_19_528.log</t>
+  </si>
+  <si>
+    <t>consolidation.2019-04-20_01_18_33_884.log</t>
+  </si>
+  <si>
+    <t>consolidation.2019-04-20_01_58_18_089.log</t>
+  </si>
+  <si>
+    <t>consolidation.2019-04-20_02_37_42_870.log</t>
+  </si>
+  <si>
+    <t>consolidation.2019-04-20_11_21_54_991.log</t>
+  </si>
+  <si>
+    <t>consolidation.2019-04-20_13_25_49_679.log</t>
+  </si>
+  <si>
+    <t>consolidation.2019-04-20_16_41_31_511.log</t>
+  </si>
+  <si>
+    <t>consolidation.2019-04-20_17_12_13_902.log</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Windows 10</t>
+  </si>
+  <si>
+    <t>Linux RedHat Cluster</t>
+  </si>
+  <si>
+    <t>iMac</t>
+  </si>
+  <si>
+    <t>Platform</t>
   </si>
 </sst>
 </file>
@@ -366,7 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -406,6 +452,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -413,9 +470,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -427,8 +481,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -445,6 +497,1081 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12902537182852145"/>
+          <c:y val="8.8379629629629641E-2"/>
+          <c:w val="0.82653018372703413"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Windows 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Statistics!$C$8:$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Statistics!$C$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>mm:ss.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.2793981481482648E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0542824074074053E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0692939814814792E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9616-4DB2-90D4-EAF1D597BC3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linux RedHat Cluster</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Statistics!$C$8:$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Statistics!$C$10:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>hh:mm:ss.000</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9616-4DB2-90D4-EAF1D597BC3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iMac</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Statistics!$C$8:$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Statistics!$C$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>mm:ss.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.8368055555558787E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3463541666667002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.563541666666616E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9616-4DB2-90D4-EAF1D597BC3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="727903176"/>
+        <c:axId val="727903832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="727903176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="727903832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="727903832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="mm:ss.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="727903176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>738187</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A540172D-9EA7-4DD1-914D-DFDBA184EA90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -743,11 +1870,351 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB10B5C6-EADA-4C26-8F86-4DE5AADC00CF}">
+  <dimension ref="A1:T29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7:R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2.5703125" customWidth="1"/>
+    <col min="16" max="18" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:20" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="35"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="36"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c r="P8" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="R8" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="31">
+        <f>'Windows 10'!F21</f>
+        <v>8.2793981481482648E-4</v>
+      </c>
+      <c r="D9" s="32">
+        <f>'Windows 10'!F22</f>
+        <v>1.0542824074074053E-3</v>
+      </c>
+      <c r="E9" s="31">
+        <f>'Windows 10'!F20</f>
+        <v>2.0692939814814792E-3</v>
+      </c>
+      <c r="F9" s="31">
+        <f>'Windows 10'!I21</f>
+        <v>7.2061342592592836E-4</v>
+      </c>
+      <c r="G9" s="32">
+        <f>'Windows 10'!I22</f>
+        <v>8.4150598379629654E-2</v>
+      </c>
+      <c r="H9" s="31">
+        <f>'Windows 10'!I20</f>
+        <v>0.83418149305555556</v>
+      </c>
+      <c r="I9" s="31">
+        <f>'Windows 10'!L21</f>
+        <v>7.1434490740740694E-3</v>
+      </c>
+      <c r="J9" s="32">
+        <f>'Windows 10'!L22</f>
+        <v>7.8373611111110988E-3</v>
+      </c>
+      <c r="K9" s="31">
+        <f>'Windows 10'!L20</f>
+        <v>8.8043055555555513E-3</v>
+      </c>
+      <c r="L9" s="31">
+        <f>'Windows 10'!O21</f>
+        <v>1.0892326388888929E-2</v>
+      </c>
+      <c r="M9" s="32">
+        <f>'Windows 10'!O22</f>
+        <v>1.2959115740740757E-2</v>
+      </c>
+      <c r="N9" s="31">
+        <f>'Windows 10'!O20</f>
+        <v>1.4160543981481533E-2</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="31">
+        <f>'Windows 10'!S21</f>
+        <v>1.993729166666669E-2</v>
+      </c>
+      <c r="Q9" s="32">
+        <f>'Windows 10'!S22</f>
+        <v>2.2668526620370385E-2</v>
+      </c>
+      <c r="R9" s="31">
+        <f>'Windows 10'!S20</f>
+        <v>2.4379675925925992E-2</v>
+      </c>
+      <c r="T9" s="20"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="24"/>
+      <c r="T10" s="20"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="31">
+        <f>iMac!F21</f>
+        <v>4.8368055555558787E-4</v>
+      </c>
+      <c r="D11" s="32">
+        <f>iMac!F22</f>
+        <v>5.3463541666667002E-4</v>
+      </c>
+      <c r="E11" s="31">
+        <f>iMac!F20</f>
+        <v>5.563541666666616E-4</v>
+      </c>
+      <c r="F11" s="31">
+        <f>iMac!I21</f>
+        <v>1.5902777777765387E-4</v>
+      </c>
+      <c r="G11" s="32">
+        <f>iMac!I22</f>
+        <v>2.056342592592496E-4</v>
+      </c>
+      <c r="H11" s="31">
+        <f>iMac!I20</f>
+        <v>3.8163194444440496E-4</v>
+      </c>
+      <c r="I11" s="31">
+        <f>iMac!L21</f>
+        <v>1.9432754629629635E-3</v>
+      </c>
+      <c r="J11" s="32">
+        <f>iMac!L22</f>
+        <v>2.312924768518518E-3</v>
+      </c>
+      <c r="K11" s="31">
+        <f>iMac!L20</f>
+        <v>3.4750810185185665E-3</v>
+      </c>
+      <c r="L11" s="31">
+        <f>iMac!O21</f>
+        <v>3.3687384259258879E-3</v>
+      </c>
+      <c r="M11" s="32">
+        <f>iMac!O22</f>
+        <v>3.874740740740748E-3</v>
+      </c>
+      <c r="N11" s="31">
+        <f>iMac!O20</f>
+        <v>5.1183217592591923E-3</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="31">
+        <f>iMac!S21</f>
+        <v>5.9887847222223067E-3</v>
+      </c>
+      <c r="Q11" s="32">
+        <f>iMac!S22</f>
+        <v>6.9282534722222315E-3</v>
+      </c>
+      <c r="R11" s="31">
+        <f>iMac!S20</f>
+        <v>8.231377314814825E-3</v>
+      </c>
+      <c r="T11" s="20"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="P7:R7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B432B7A5-BE74-44BD-9030-2D09A2CC0B90}">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,36 +2254,36 @@
       <c r="D5" s="2"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30" t="s">
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="27" t="s">
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="29"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="36"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="27" t="s">
+      <c r="Q7" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="28"/>
-      <c r="S7" s="29"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="36"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
@@ -828,7 +2295,7 @@
       <c r="D8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="26" t="s">
@@ -876,59 +2343,59 @@
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>51</v>
+      <c r="C9" s="30" t="s">
+        <v>53</v>
       </c>
       <c r="D9" s="5">
-        <v>0.80107535879629632</v>
+        <v>0.97153535879629638</v>
       </c>
       <c r="E9" s="5">
-        <v>0.8021166666666667</v>
+        <v>0.97258430555555553</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" ref="F9:F18" si="0">E9-D9</f>
-        <v>1.0413078703703782E-3</v>
+        <f t="shared" ref="F9:F17" si="0">E9-D9</f>
+        <v>1.0489467592591506E-3</v>
       </c>
       <c r="G9" s="5">
-        <v>0.8021166666666667</v>
+        <v>0.13925099537037036</v>
       </c>
       <c r="H9" s="5">
-        <v>0.80318171296296292</v>
+        <v>0.97343248842592589</v>
       </c>
       <c r="I9" s="6">
-        <f>H9-G9</f>
-        <v>1.0650462962962237E-3</v>
+        <f t="shared" ref="I9:I17" si="1">H9-G9</f>
+        <v>0.83418149305555556</v>
       </c>
       <c r="J9" s="5">
-        <v>0.80318189814814822</v>
+        <v>0.97343248842592589</v>
       </c>
       <c r="K9" s="5">
-        <v>0.81561875000000006</v>
+        <v>0.98082364583333337</v>
       </c>
       <c r="L9" s="6">
-        <f>K9-J9</f>
-        <v>1.2436851851851838E-2</v>
+        <f t="shared" ref="L9:L17" si="2">K9-J9</f>
+        <v>7.3911574074074782E-3</v>
       </c>
       <c r="M9" s="5">
-        <v>0.81561875000000006</v>
+        <v>0.98082381944444441</v>
       </c>
       <c r="N9" s="5">
-        <v>0.83558361111111112</v>
+        <v>0.99431446759259268</v>
       </c>
       <c r="O9" s="6">
-        <f>N9-M9</f>
-        <v>1.9964861111111065E-2</v>
+        <f t="shared" ref="O9:O17" si="3">N9-M9</f>
+        <v>1.3490648148148265E-2</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="5">
-        <v>0.80107440972222221</v>
+        <v>0.97153467592592591</v>
       </c>
       <c r="R9" s="5">
-        <v>0.83558361111111112</v>
+        <v>0.99431446759259268</v>
       </c>
       <c r="S9" s="6">
-        <f>R9-Q9</f>
-        <v>3.450920138888891E-2</v>
+        <f t="shared" ref="S9:S17" si="4">R9-Q9</f>
+        <v>2.2779791666666771E-2</v>
       </c>
       <c r="U9" s="20"/>
     </row>
@@ -937,58 +2404,58 @@
         <v>2</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D10" s="13">
-        <v>0.48198968749999999</v>
+        <v>6.6591782407407416E-3</v>
       </c>
       <c r="E10" s="13">
-        <v>0.48294159722222219</v>
+        <v>7.5093749999999996E-3</v>
       </c>
       <c r="F10" s="16">
-        <f>E10-D10</f>
-        <v>9.5190972222219949E-4</v>
+        <f t="shared" si="0"/>
+        <v>8.5019675925925801E-4</v>
       </c>
       <c r="G10" s="13">
-        <v>0.48294162037037042</v>
+        <v>7.5093981481481479E-3</v>
       </c>
       <c r="H10" s="13">
-        <v>0.4837615393518519</v>
+        <v>8.3110532407407404E-3</v>
       </c>
       <c r="I10" s="16">
-        <f>H10-G10</f>
-        <v>8.1991898148148223E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.0165509259259252E-4</v>
       </c>
       <c r="J10" s="13">
-        <v>0.4837615393518519</v>
+        <v>8.3110532407407404E-3</v>
       </c>
       <c r="K10" s="13">
-        <v>0.49216361111111112</v>
+        <v>1.6306990740740743E-2</v>
       </c>
       <c r="L10" s="16">
-        <f>K10-J10</f>
-        <v>8.402071759259222E-3</v>
+        <f t="shared" si="2"/>
+        <v>7.995937500000003E-3</v>
       </c>
       <c r="M10" s="13">
-        <v>0.49216361111111112</v>
+        <v>1.6306990740740743E-2</v>
       </c>
       <c r="N10" s="13">
-        <v>0.50632415509259265</v>
+        <v>2.8698240740740736E-2</v>
       </c>
       <c r="O10" s="16">
-        <f>N10-M10</f>
-        <v>1.4160543981481533E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.2391249999999993E-2</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="13">
-        <v>0.48198871527777776</v>
+        <v>6.6582870370370381E-3</v>
       </c>
       <c r="R10" s="13">
-        <v>0.50632416666666669</v>
+        <v>2.8698240740740736E-2</v>
       </c>
       <c r="S10" s="16">
-        <f>R10-Q10</f>
-        <v>2.4335451388888929E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.2039953703703697E-2</v>
       </c>
       <c r="U10" s="20"/>
     </row>
@@ -996,37 +2463,59 @@
       <c r="B11" s="1">
         <v>3</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="C11" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3.2715069444444446E-2</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3.3575150462962965E-2</v>
+      </c>
       <c r="F11" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+        <v>8.600810185185187E-4</v>
+      </c>
+      <c r="G11" s="5">
+        <v>3.3575173611111113E-2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>3.4295787037037041E-2</v>
+      </c>
       <c r="I11" s="6">
-        <f t="shared" ref="I10:I18" si="1">H11-G11</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+        <f t="shared" si="1"/>
+        <v>7.2061342592592836E-4</v>
+      </c>
+      <c r="J11" s="5">
+        <v>3.4295787037037041E-2</v>
+      </c>
+      <c r="K11" s="5">
+        <v>4.1439236111111111E-2</v>
+      </c>
       <c r="L11" s="6">
-        <f t="shared" ref="L10:L18" si="2">K11-J11</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+        <f t="shared" si="2"/>
+        <v>7.1434490740740694E-3</v>
+      </c>
+      <c r="M11" s="5">
+        <v>4.1439259259259259E-2</v>
+      </c>
+      <c r="N11" s="5">
+        <v>5.4558842592592589E-2</v>
+      </c>
       <c r="O11" s="6">
-        <f t="shared" ref="O10:O18" si="3">N11-M11</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1.311958333333333E-2</v>
       </c>
       <c r="P11" s="4"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
+      <c r="Q11" s="5">
+        <v>3.2714120370370373E-2</v>
+      </c>
+      <c r="R11" s="5">
+        <v>5.4558842592592589E-2</v>
+      </c>
       <c r="S11" s="6">
-        <f t="shared" ref="S10:S18" si="4">R11-Q11</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2.1844722222222217E-2</v>
       </c>
       <c r="U11" s="20"/>
     </row>
@@ -1034,37 +2523,59 @@
       <c r="B12" s="12">
         <v>4</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="C12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="13">
+        <v>5.7868113425925925E-2</v>
+      </c>
+      <c r="E12" s="13">
+        <v>5.8721215277777773E-2</v>
+      </c>
       <c r="F12" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+        <v>8.5310185185184795E-4</v>
+      </c>
+      <c r="G12" s="13">
+        <v>5.8721238425925922E-2</v>
+      </c>
+      <c r="H12" s="13">
+        <v>5.9585266203703711E-2</v>
+      </c>
       <c r="I12" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+        <v>8.6402777777778994E-4</v>
+      </c>
+      <c r="J12" s="13">
+        <v>5.9585266203703711E-2</v>
+      </c>
+      <c r="K12" s="13">
+        <v>6.8389571759259263E-2</v>
+      </c>
       <c r="L12" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+        <v>8.8043055555555513E-3</v>
+      </c>
+      <c r="M12" s="13">
+        <v>6.8389571759259263E-2</v>
+      </c>
+      <c r="N12" s="13">
+        <v>8.2153807870370368E-2</v>
+      </c>
       <c r="O12" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.3764236111111106E-2</v>
       </c>
       <c r="P12" s="4"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
+      <c r="Q12" s="13">
+        <v>5.7866747685185183E-2</v>
+      </c>
+      <c r="R12" s="13">
+        <v>8.2153807870370368E-2</v>
+      </c>
       <c r="S12" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.4287060185185186E-2</v>
       </c>
       <c r="U12" s="20"/>
     </row>
@@ -1072,37 +2583,59 @@
       <c r="B13" s="1">
         <v>5</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="C13" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="5">
+        <v>8.7388761574074061E-2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>8.8216701388888888E-2</v>
+      </c>
       <c r="F13" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+        <v>8.2793981481482648E-4</v>
+      </c>
+      <c r="G13" s="5">
+        <v>8.8216736111111124E-2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>8.9017997685185188E-2</v>
+      </c>
       <c r="I13" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+        <v>8.0126157407406362E-4</v>
+      </c>
+      <c r="J13" s="5">
+        <v>8.9017997685185188E-2</v>
+      </c>
+      <c r="K13" s="5">
+        <v>9.690171296296296E-2</v>
+      </c>
       <c r="L13" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+        <v>7.8837152777777725E-3</v>
+      </c>
+      <c r="M13" s="5">
+        <v>9.690171296296296E-2</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.10952395833333334</v>
+      </c>
       <c r="O13" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.2622245370370377E-2</v>
       </c>
       <c r="P13" s="4"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="Q13" s="5">
+        <v>8.7388032407407404E-2</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0.10952395833333334</v>
+      </c>
       <c r="S13" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.2135925925925934E-2</v>
       </c>
       <c r="U13" s="20"/>
     </row>
@@ -1110,37 +2643,59 @@
       <c r="B14" s="12">
         <v>6</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="C14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.44917481481481486</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.45124410879629634</v>
+      </c>
       <c r="F14" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+        <v>2.0692939814814792E-3</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.45124425925925921</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.45210899305555552</v>
+      </c>
       <c r="I14" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+        <v>8.6473379629631308E-4</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.45210899305555552</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0.46048682870370367</v>
+      </c>
       <c r="L14" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
+        <v>8.3778356481481464E-3</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0.46048700231481482</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0.47355295138888892</v>
+      </c>
       <c r="O14" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.3065949074074101E-2</v>
       </c>
       <c r="P14" s="4"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
+      <c r="Q14" s="13">
+        <v>0.44917346064814812</v>
+      </c>
+      <c r="R14" s="13">
+        <v>0.47355313657407411</v>
+      </c>
       <c r="S14" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.4379675925925992E-2</v>
       </c>
       <c r="U14" s="20"/>
     </row>
@@ -1148,37 +2703,59 @@
       <c r="B15" s="1">
         <v>7</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="C15" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.48198968749999999</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.48294159722222219</v>
+      </c>
       <c r="F15" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+        <v>9.5190972222219949E-4</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.48294162037037042</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.4837615393518519</v>
+      </c>
       <c r="I15" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+        <v>8.1991898148148223E-4</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.4837615393518519</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.49216361111111112</v>
+      </c>
       <c r="L15" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+        <v>8.402071759259222E-3</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0.49216361111111112</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0.50632415509259265</v>
+      </c>
       <c r="O15" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.4160543981481533E-2</v>
       </c>
       <c r="P15" s="4"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
+      <c r="Q15" s="5">
+        <v>0.48198871527777776</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0.50632416666666669</v>
+      </c>
       <c r="S15" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.4335451388888929E-2</v>
       </c>
       <c r="U15" s="20"/>
     </row>
@@ -1186,222 +2763,288 @@
       <c r="B16" s="12">
         <v>8</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="C16" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0.53683384259259259</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.53796585648148143</v>
+      </c>
       <c r="F16" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+        <v>1.1320138888888387E-3</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0.53796585648148143</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0.5388486921296296</v>
+      </c>
       <c r="I16" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+        <v>8.828356481481725E-4</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0.5388486921296296</v>
+      </c>
+      <c r="K16" s="13">
+        <v>0.54647246527777782</v>
+      </c>
       <c r="L16" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
+        <v>7.6237731481482163E-3</v>
+      </c>
+      <c r="M16" s="13">
+        <v>0.54647246527777782</v>
+      </c>
+      <c r="N16" s="13">
+        <v>0.55960276620370364</v>
+      </c>
       <c r="O16" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.313030092592582E-2</v>
       </c>
       <c r="P16" s="4"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
+      <c r="Q16" s="13">
+        <v>0.53683284722222224</v>
+      </c>
+      <c r="R16" s="13">
+        <v>0.55960276620370364</v>
+      </c>
       <c r="S16" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.2769918981481396E-2</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>9</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.67332900462962952</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.67426478009259261</v>
+      </c>
       <c r="F17" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+        <v>9.3577546296308434E-4</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.67425925925925922</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.67502142361111117</v>
+      </c>
       <c r="I17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+        <v>7.6216435185194609E-4</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0.67502142361111117</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.68254952546296288</v>
+      </c>
       <c r="L17" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+        <v>7.5281018518517095E-3</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0.68254952546296288</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0.695503599537037</v>
+      </c>
       <c r="O17" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.2954074074074118E-2</v>
       </c>
       <c r="P17" s="4"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
+      <c r="Q17" s="5">
+        <v>0.67332812499999994</v>
+      </c>
+      <c r="R17" s="5">
+        <v>0.695503599537037</v>
+      </c>
       <c r="S17" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.2175474537037054E-2</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>10</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="C18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0.69689113425925919</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.69790469907407404</v>
+      </c>
       <c r="F18" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+        <f t="shared" ref="F18" si="5">E18-D18</f>
+        <v>1.0135648148148491E-3</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.69790469907407404</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.69871197916666672</v>
+      </c>
       <c r="I18" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
+        <f t="shared" ref="I18" si="6">H18-G18</f>
+        <v>8.0728009259267708E-4</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.69871197916666672</v>
+      </c>
+      <c r="K18" s="13">
+        <v>0.70593524305555555</v>
+      </c>
       <c r="L18" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
+        <f t="shared" ref="L18" si="7">K18-J18</f>
+        <v>7.2232638888888312E-3</v>
+      </c>
+      <c r="M18" s="13">
+        <v>0.70593524305555555</v>
+      </c>
+      <c r="N18" s="13">
+        <v>0.71682756944444448</v>
+      </c>
       <c r="O18" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="O18" si="8">N18-M18</f>
+        <v>1.0892326388888929E-2</v>
       </c>
       <c r="P18" s="4"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
+      <c r="Q18" s="13">
+        <v>0.69689027777777779</v>
+      </c>
+      <c r="R18" s="13">
+        <v>0.71682756944444448</v>
+      </c>
       <c r="S18" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="S18" si="9">R18-Q18</f>
+        <v>1.993729166666669E-2</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="11">
         <f>MAX(F9:F18)</f>
-        <v>1.0413078703703782E-3</v>
-      </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="33"/>
+        <v>2.0692939814814792E-3</v>
+      </c>
+      <c r="G20" s="37"/>
+      <c r="H20" s="39"/>
       <c r="I20" s="11">
         <f>MAX(I9:I18)</f>
-        <v>1.0650462962962237E-3</v>
-      </c>
-      <c r="J20" s="31"/>
-      <c r="K20" s="33"/>
+        <v>0.83418149305555556</v>
+      </c>
+      <c r="J20" s="37"/>
+      <c r="K20" s="39"/>
       <c r="L20" s="11">
         <f>MAX(L9:L18)</f>
-        <v>1.2436851851851838E-2</v>
-      </c>
-      <c r="M20" s="31"/>
-      <c r="N20" s="33"/>
+        <v>8.8043055555555513E-3</v>
+      </c>
+      <c r="M20" s="37"/>
+      <c r="N20" s="39"/>
       <c r="O20" s="11">
         <f>MAX(O9:O18)</f>
-        <v>1.9964861111111065E-2</v>
+        <v>1.4160543981481533E-2</v>
       </c>
       <c r="P20" s="14"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="33"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="39"/>
       <c r="S20" s="11">
         <f>MAX(S9:S18)</f>
-        <v>3.450920138888891E-2</v>
+        <v>2.4379675925925992E-2</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="15">
-        <f>MIN(F10:F19)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="33"/>
+        <f>MIN(F9:F19)</f>
+        <v>8.2793981481482648E-4</v>
+      </c>
+      <c r="G21" s="37"/>
+      <c r="H21" s="39"/>
       <c r="I21" s="15">
-        <f>MIN(I10:I19)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="33"/>
+        <f>MIN(I9:I19)</f>
+        <v>7.2061342592592836E-4</v>
+      </c>
+      <c r="J21" s="37"/>
+      <c r="K21" s="39"/>
       <c r="L21" s="15">
-        <f>MIN(L10:L19)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="31"/>
-      <c r="N21" s="33"/>
+        <f>MIN(L9:L19)</f>
+        <v>7.1434490740740694E-3</v>
+      </c>
+      <c r="M21" s="37"/>
+      <c r="N21" s="39"/>
       <c r="O21" s="15">
-        <f>MIN(O10:O19)</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="33"/>
+        <f>MIN(O9:O19)</f>
+        <v>1.0892326388888929E-2</v>
+      </c>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="39"/>
       <c r="S21" s="15">
-        <f>MIN(S10:S19)</f>
-        <v>0</v>
+        <f>MIN(S9:S19)</f>
+        <v>1.993729166666669E-2</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="11">
         <f>AVERAGE(F9:F18)</f>
-        <v>1.9932175925925776E-4</v>
-      </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="33"/>
+        <v>1.0542824074074053E-3</v>
+      </c>
+      <c r="G22" s="37"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="11">
         <f>AVERAGE(I9:I18)</f>
-        <v>1.8849652777777059E-4</v>
-      </c>
-      <c r="J22" s="31"/>
-      <c r="K22" s="33"/>
+        <v>8.4150598379629654E-2</v>
+      </c>
+      <c r="J22" s="37"/>
+      <c r="K22" s="39"/>
       <c r="L22" s="11">
         <f>AVERAGE(L9:L18)</f>
-        <v>2.0838923611111058E-3</v>
-      </c>
-      <c r="M22" s="31"/>
-      <c r="N22" s="33"/>
+        <v>7.8373611111110988E-3</v>
+      </c>
+      <c r="M22" s="37"/>
+      <c r="N22" s="39"/>
       <c r="O22" s="11">
         <f>AVERAGE(O9:O18)</f>
-        <v>3.4125405092592597E-3</v>
-      </c>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="33"/>
+        <v>1.2959115740740757E-2</v>
+      </c>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="39"/>
       <c r="S22" s="11">
         <f>AVERAGE(S9:S18)</f>
-        <v>5.8844652777777836E-3</v>
+        <v>2.2668526620370385E-2</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -1411,11 +3054,11 @@
       <c r="S23" s="9"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
       <c r="I25" s="20"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -1423,961 +3066,57 @@
       <c r="B26" t="s">
         <v>43</v>
       </c>
-      <c r="H26" s="35"/>
+      <c r="H26" s="29"/>
       <c r="I26" s="20"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="35"/>
+      <c r="H27" s="29"/>
       <c r="I27" s="20"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="35"/>
+      <c r="H28" s="29"/>
       <c r="I28" s="20"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="35"/>
+      <c r="H29" s="29"/>
       <c r="I29" s="20"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H30" s="35"/>
+      <c r="H30" s="29"/>
       <c r="I30" s="20"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H31" s="35"/>
+      <c r="H31" s="29"/>
       <c r="I31" s="20"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H32" s="35"/>
+      <c r="H32" s="29"/>
       <c r="I32" s="20"/>
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="H33" s="35"/>
+      <c r="H33" s="29"/>
       <c r="I33" s="20"/>
     </row>
     <row r="34" spans="7:9" x14ac:dyDescent="0.25">
       <c r="I34" s="20"/>
     </row>
     <row r="36" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G36" s="35"/>
+      <c r="G36" s="29"/>
     </row>
     <row r="37" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G37" s="35"/>
+      <c r="G37" s="29"/>
     </row>
     <row r="38" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G38" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="Q7:S7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC70B9F-5FAD-40E9-91FA-80CA563EC26B}">
-  <dimension ref="B1:U33"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="15" width="11.7109375" customWidth="1"/>
-    <col min="16" max="16" width="2.5703125" customWidth="1"/>
-    <col min="17" max="19" width="11.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="10"/>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="R7" s="28"/>
-      <c r="S7" s="29"/>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="S8" s="21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.71454861111111112</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.71568172453703705</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" ref="F9:F18" si="0">E9-D9</f>
-        <v>1.1331134259259246E-3</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0.71568177083333329</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0.71609912037037038</v>
-      </c>
-      <c r="I9" s="6">
-        <f>H9-G9</f>
-        <v>4.1734953703709277E-4</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0.71609920138888894</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0.71888202546296298</v>
-      </c>
-      <c r="L9" s="6">
-        <f>K9-J9</f>
-        <v>2.7828240740740418E-3</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0.71888206018518519</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0.72339574074074076</v>
-      </c>
-      <c r="O9" s="6">
-        <f>N9-M9</f>
-        <v>4.5136805555555659E-3</v>
-      </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="5">
-        <v>0.71452140046296286</v>
-      </c>
-      <c r="R9" s="5">
-        <v>0.72339576388888893</v>
-      </c>
-      <c r="S9" s="6">
-        <f>R9-Q9</f>
-        <v>8.8743634259260684E-3</v>
-      </c>
-      <c r="U9" s="20"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="12">
-        <v>2</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0.72561855324074076</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0.72676692129629628</v>
-      </c>
-      <c r="F10" s="16">
-        <f t="shared" si="0"/>
-        <v>1.1483680555555154E-3</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0.72676694444444445</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0.72731358796296297</v>
-      </c>
-      <c r="I10" s="16">
-        <f t="shared" ref="I10:I18" si="1">H10-G10</f>
-        <v>5.4664351851851922E-4</v>
-      </c>
-      <c r="J10" s="13">
-        <v>0.72731361111111115</v>
-      </c>
-      <c r="K10" s="13">
-        <v>0.7300646643518518</v>
-      </c>
-      <c r="L10" s="16">
-        <f t="shared" ref="L10:L18" si="2">K10-J10</f>
-        <v>2.7510532407406529E-3</v>
-      </c>
-      <c r="M10" s="13">
-        <v>0.73006468749999998</v>
-      </c>
-      <c r="N10" s="13">
-        <v>0.73493107638888888</v>
-      </c>
-      <c r="O10" s="16">
-        <f t="shared" ref="O10:O18" si="3">N10-M10</f>
-        <v>4.8663888888889062E-3</v>
-      </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="13">
-        <v>0.72558101851851842</v>
-      </c>
-      <c r="R10" s="13">
-        <v>0.73493111111111109</v>
-      </c>
-      <c r="S10" s="16">
-        <f t="shared" ref="S10:S18" si="4">R10-Q10</f>
-        <v>9.3500925925926737E-3</v>
-      </c>
-      <c r="U10" s="20"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.73722039351851854</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.73848506944444436</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="0"/>
-        <v>1.2646759259258289E-3</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.73848509259259254</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0.73892909722222233</v>
-      </c>
-      <c r="I11" s="6">
-        <f t="shared" si="1"/>
-        <v>4.4400462962979059E-4</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0.7389291203703704</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0.74147212962962961</v>
-      </c>
-      <c r="L11" s="6">
-        <f t="shared" si="2"/>
-        <v>2.5430092592592102E-3</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0.74147215277777778</v>
-      </c>
-      <c r="N11" s="5">
-        <v>0.74598796296296299</v>
-      </c>
-      <c r="O11" s="6">
-        <f t="shared" si="3"/>
-        <v>4.5158101851852095E-3</v>
-      </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="5">
-        <v>0.73718062500000003</v>
-      </c>
-      <c r="R11" s="5">
-        <v>0.74598798611111106</v>
-      </c>
-      <c r="S11" s="6">
-        <f t="shared" si="4"/>
-        <v>8.8073611111110228E-3</v>
-      </c>
-      <c r="U11" s="20"/>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="12">
-        <v>4</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0.75093268518518519</v>
-      </c>
-      <c r="E12" s="13">
-        <v>0.75203684027777784</v>
-      </c>
-      <c r="F12" s="16">
-        <f t="shared" si="0"/>
-        <v>1.1041550925926513E-3</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0.75203686342592591</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0.75246493055555552</v>
-      </c>
-      <c r="I12" s="16">
-        <f t="shared" si="1"/>
-        <v>4.2806712962961679E-4</v>
-      </c>
-      <c r="J12" s="13">
-        <v>0.7524649537037037</v>
-      </c>
-      <c r="K12" s="13">
-        <v>0.75532780092592589</v>
-      </c>
-      <c r="L12" s="16">
-        <f t="shared" si="2"/>
-        <v>2.8628472222221868E-3</v>
-      </c>
-      <c r="M12" s="13">
-        <v>0.75532785879629627</v>
-      </c>
-      <c r="N12" s="13">
-        <v>0.75956967592592595</v>
-      </c>
-      <c r="O12" s="16">
-        <f t="shared" si="3"/>
-        <v>4.2418171296296769E-3</v>
-      </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="13">
-        <v>0.75089471064814817</v>
-      </c>
-      <c r="R12" s="13">
-        <v>0.75956973379629622</v>
-      </c>
-      <c r="S12" s="16">
-        <f t="shared" si="4"/>
-        <v>8.6750231481480533E-3</v>
-      </c>
-      <c r="U12" s="20"/>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.76319787037037035</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.76446400462962971</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="0"/>
-        <v>1.2661342592593661E-3</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0.76446402777777778</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0.76489293981481488</v>
-      </c>
-      <c r="I13" s="6">
-        <f t="shared" si="1"/>
-        <v>4.2891203703709913E-4</v>
-      </c>
-      <c r="J13" s="5">
-        <v>0.76489297453703697</v>
-      </c>
-      <c r="K13" s="5">
-        <v>0.76840118055555562</v>
-      </c>
-      <c r="L13" s="6">
-        <f t="shared" si="2"/>
-        <v>3.5082060185186448E-3</v>
-      </c>
-      <c r="M13" s="5">
-        <v>0.76840121527777772</v>
-      </c>
-      <c r="N13" s="5">
-        <v>0.77285077546296288</v>
-      </c>
-      <c r="O13" s="6">
-        <f t="shared" si="3"/>
-        <v>4.4495601851851641E-3</v>
-      </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="5">
-        <v>0.76316594907407398</v>
-      </c>
-      <c r="R13" s="5">
-        <v>0.7728508101851852</v>
-      </c>
-      <c r="S13" s="6">
-        <f t="shared" si="4"/>
-        <v>9.6848611111112204E-3</v>
-      </c>
-      <c r="U13" s="20"/>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="12">
-        <v>6</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0.77304989583333328</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0.77423392361111121</v>
-      </c>
-      <c r="F14" s="16">
-        <f t="shared" si="0"/>
-        <v>1.1840277777779296E-3</v>
-      </c>
-      <c r="G14" s="13">
-        <v>0.77423394675925927</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0.77480922453703693</v>
-      </c>
-      <c r="I14" s="16">
-        <f t="shared" si="1"/>
-        <v>5.7527777777766076E-4</v>
-      </c>
-      <c r="J14" s="13">
-        <v>0.77480924768518522</v>
-      </c>
-      <c r="K14" s="13">
-        <v>0.77845486111111117</v>
-      </c>
-      <c r="L14" s="16">
-        <f t="shared" si="2"/>
-        <v>3.6456134259259532E-3</v>
-      </c>
-      <c r="M14" s="13">
-        <v>0.77845489583333327</v>
-      </c>
-      <c r="N14" s="13">
-        <v>0.78323526620370376</v>
-      </c>
-      <c r="O14" s="16">
-        <f t="shared" si="3"/>
-        <v>4.7803703703704903E-3</v>
-      </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="13">
-        <v>0.77301702546296303</v>
-      </c>
-      <c r="R14" s="13">
-        <v>0.78323530092592586</v>
-      </c>
-      <c r="S14" s="16">
-        <f t="shared" si="4"/>
-        <v>1.0218275462962834E-2</v>
-      </c>
-      <c r="U14" s="20"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.78405665509259259</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.78529003472222225</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="0"/>
-        <v>1.2333796296296606E-3</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0.78529006944444435</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0.78564601851851856</v>
-      </c>
-      <c r="I15" s="6">
-        <f t="shared" si="1"/>
-        <v>3.5594907407421328E-4</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0.78564604166666674</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0.78836160879629624</v>
-      </c>
-      <c r="L15" s="6">
-        <f t="shared" si="2"/>
-        <v>2.7155671296295036E-3</v>
-      </c>
-      <c r="M15" s="5">
-        <v>0.78836164351851856</v>
-      </c>
-      <c r="N15" s="5">
-        <v>0.79303240740740744</v>
-      </c>
-      <c r="O15" s="6">
-        <f t="shared" si="3"/>
-        <v>4.6707638888888736E-3</v>
-      </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="5">
-        <v>0.78402290509259265</v>
-      </c>
-      <c r="R15" s="5">
-        <v>0.79303370370370363</v>
-      </c>
-      <c r="S15" s="6">
-        <f t="shared" si="4"/>
-        <v>9.0107986111109817E-3</v>
-      </c>
-      <c r="U15" s="20"/>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="12">
-        <v>8</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="13">
-        <v>0.79604318287037035</v>
-      </c>
-      <c r="E16" s="13">
-        <v>0.79716134259259253</v>
-      </c>
-      <c r="F16" s="16">
-        <f t="shared" si="0"/>
-        <v>1.1181597222221784E-3</v>
-      </c>
-      <c r="G16" s="13">
-        <v>0.79716137731481485</v>
-      </c>
-      <c r="H16" s="13">
-        <v>0.79757130787037045</v>
-      </c>
-      <c r="I16" s="16">
-        <f t="shared" si="1"/>
-        <v>4.0993055555560431E-4</v>
-      </c>
-      <c r="J16" s="13">
-        <v>0.79757135416666669</v>
-      </c>
-      <c r="K16" s="13">
-        <v>0.800440300925926</v>
-      </c>
-      <c r="L16" s="16">
-        <f t="shared" si="2"/>
-        <v>2.8689467592593054E-3</v>
-      </c>
-      <c r="M16" s="13">
-        <v>0.80044033564814809</v>
-      </c>
-      <c r="N16" s="13">
-        <v>0.80519219907407402</v>
-      </c>
-      <c r="O16" s="16">
-        <f t="shared" si="3"/>
-        <v>4.7518634259259285E-3</v>
-      </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="13">
-        <v>0.79601300925925933</v>
-      </c>
-      <c r="R16" s="13">
-        <v>0.80519223379629634</v>
-      </c>
-      <c r="S16" s="16">
-        <f t="shared" si="4"/>
-        <v>9.1792245370370118E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0.80587207175925923</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0.80715405092592596</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="0"/>
-        <v>1.2819791666667246E-3</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0.80715407407407413</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0.80757525462962965</v>
-      </c>
-      <c r="I17" s="6">
-        <f t="shared" si="1"/>
-        <v>4.2118055555551148E-4</v>
-      </c>
-      <c r="J17" s="5">
-        <v>0.80757528935185185</v>
-      </c>
-      <c r="K17" s="5">
-        <v>0.8105953935185185</v>
-      </c>
-      <c r="L17" s="6">
-        <f t="shared" si="2"/>
-        <v>3.0201041666666484E-3</v>
-      </c>
-      <c r="M17" s="5">
-        <v>0.81059541666666668</v>
-      </c>
-      <c r="N17" s="5">
-        <v>0.81499768518518512</v>
-      </c>
-      <c r="O17" s="6">
-        <f t="shared" si="3"/>
-        <v>4.4022685185184374E-3</v>
-      </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="5">
-        <v>0.80583946759259251</v>
-      </c>
-      <c r="R17" s="5">
-        <v>0.81499770833333329</v>
-      </c>
-      <c r="S17" s="6">
-        <f t="shared" si="4"/>
-        <v>9.1582407407407862E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="12">
-        <v>10</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="13">
-        <v>0.81541530092592585</v>
-      </c>
-      <c r="E18" s="13">
-        <v>0.81646685185185186</v>
-      </c>
-      <c r="F18" s="16">
-        <f t="shared" si="0"/>
-        <v>1.0515509259260147E-3</v>
-      </c>
-      <c r="G18" s="13">
-        <v>0.81646688657407418</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0.81685690972222214</v>
-      </c>
-      <c r="I18" s="16">
-        <f t="shared" si="1"/>
-        <v>3.9002314814795547E-4</v>
-      </c>
-      <c r="J18" s="13">
-        <v>0.81685693287037031</v>
-      </c>
-      <c r="K18" s="13">
-        <v>0.81997572916666661</v>
-      </c>
-      <c r="L18" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1187962962963001E-3</v>
-      </c>
-      <c r="M18" s="13">
-        <v>0.81997576388888893</v>
-      </c>
-      <c r="N18" s="13">
-        <v>0.82465346064814815</v>
-      </c>
-      <c r="O18" s="16">
-        <f t="shared" si="3"/>
-        <v>4.67769675925922E-3</v>
-      </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="13">
-        <v>0.81537829861111122</v>
-      </c>
-      <c r="R18" s="13">
-        <v>0.82465348379629633</v>
-      </c>
-      <c r="S18" s="16">
-        <f t="shared" si="4"/>
-        <v>9.2751851851851086E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="11">
-        <f>MAX(F9:F18)</f>
-        <v>1.2819791666667246E-3</v>
-      </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="11">
-        <f>MAX(I9:I18)</f>
-        <v>5.7527777777766076E-4</v>
-      </c>
-      <c r="J20" s="31"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="11">
-        <f>MAX(L9:L18)</f>
-        <v>3.6456134259259532E-3</v>
-      </c>
-      <c r="M20" s="31"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="11">
-        <f>MAX(O9:O18)</f>
-        <v>4.8663888888889062E-3</v>
-      </c>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="11">
-        <f>MAX(S9:S18)</f>
-        <v>1.0218275462962834E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="15">
-        <f>MIN(F10:F19)</f>
-        <v>1.0515509259260147E-3</v>
-      </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="15">
-        <f>MIN(I10:I19)</f>
-        <v>3.5594907407421328E-4</v>
-      </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="15">
-        <f>MIN(L10:L19)</f>
-        <v>2.5430092592592102E-3</v>
-      </c>
-      <c r="M21" s="31"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="15">
-        <f>MIN(O10:O19)</f>
-        <v>4.2418171296296769E-3</v>
-      </c>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="15">
-        <f>MIN(S10:S19)</f>
-        <v>8.6750231481480533E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="11">
-        <f>AVERAGE(F9:F18)</f>
-        <v>1.1785543981481794E-3</v>
-      </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="11">
-        <f>AVERAGE(I9:I18)</f>
-        <v>4.4173379629630638E-4</v>
-      </c>
-      <c r="J22" s="31"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="11">
-        <f>AVERAGE(L9:L18)</f>
-        <v>2.9816967592592447E-3</v>
-      </c>
-      <c r="M22" s="31"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="11">
-        <f>AVERAGE(O9:O18)</f>
-        <v>4.5870219907407474E-3</v>
-      </c>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="11">
-        <f>AVERAGE(S9:S18)</f>
-        <v>9.2233425925925764E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="I23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="S23" s="9"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="19" t="s">
-        <v>20</v>
-      </c>
+      <c r="G38" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -2409,11 +3148,915 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC70B9F-5FAD-40E9-91FA-80CA563EC26B}">
+  <dimension ref="B1:U33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="2.5703125" customWidth="1"/>
+    <col min="17" max="19" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="35"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="35"/>
+      <c r="S7" s="36"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.71454861111111112</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.71568172453703705</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" ref="F9:F18" si="0">E9-D9</f>
+        <v>1.1331134259259246E-3</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.71568177083333329</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.71609912037037038</v>
+      </c>
+      <c r="I9" s="6">
+        <f>H9-G9</f>
+        <v>4.1734953703709277E-4</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.71609920138888894</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.71888202546296298</v>
+      </c>
+      <c r="L9" s="6">
+        <f>K9-J9</f>
+        <v>2.7828240740740418E-3</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.71888206018518519</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.72339574074074076</v>
+      </c>
+      <c r="O9" s="6">
+        <f>N9-M9</f>
+        <v>4.5136805555555659E-3</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="5">
+        <v>0.71452140046296286</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0.72339576388888893</v>
+      </c>
+      <c r="S9" s="6">
+        <f>R9-Q9</f>
+        <v>8.8743634259260684E-3</v>
+      </c>
+      <c r="U9" s="20"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="12">
+        <v>2</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.72561855324074076</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.72676692129629628</v>
+      </c>
+      <c r="F10" s="16">
+        <f t="shared" si="0"/>
+        <v>1.1483680555555154E-3</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.72676694444444445</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.72731358796296297</v>
+      </c>
+      <c r="I10" s="16">
+        <f t="shared" ref="I10:I18" si="1">H10-G10</f>
+        <v>5.4664351851851922E-4</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.72731361111111115</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0.7300646643518518</v>
+      </c>
+      <c r="L10" s="16">
+        <f t="shared" ref="L10:L18" si="2">K10-J10</f>
+        <v>2.7510532407406529E-3</v>
+      </c>
+      <c r="M10" s="13">
+        <v>0.73006468749999998</v>
+      </c>
+      <c r="N10" s="13">
+        <v>0.73493107638888888</v>
+      </c>
+      <c r="O10" s="16">
+        <f t="shared" ref="O10:O18" si="3">N10-M10</f>
+        <v>4.8663888888889062E-3</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="13">
+        <v>0.72558101851851842</v>
+      </c>
+      <c r="R10" s="13">
+        <v>0.73493111111111109</v>
+      </c>
+      <c r="S10" s="16">
+        <f t="shared" ref="S10:S18" si="4">R10-Q10</f>
+        <v>9.3500925925926737E-3</v>
+      </c>
+      <c r="U10" s="20"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.73722039351851854</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.73848506944444436</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2646759259258289E-3</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.73848509259259254</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.73892909722222233</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
+        <v>4.4400462962979059E-4</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.7389291203703704</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.74147212962962961</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="2"/>
+        <v>2.5430092592592102E-3</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0.74147215277777778</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0.74598796296296299</v>
+      </c>
+      <c r="O11" s="6">
+        <f t="shared" si="3"/>
+        <v>4.5158101851852095E-3</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="5">
+        <v>0.73718062500000003</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0.74598798611111106</v>
+      </c>
+      <c r="S11" s="6">
+        <f t="shared" si="4"/>
+        <v>8.8073611111110228E-3</v>
+      </c>
+      <c r="U11" s="20"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="12">
+        <v>4</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.75093268518518519</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.75203684027777784</v>
+      </c>
+      <c r="F12" s="16">
+        <f t="shared" si="0"/>
+        <v>1.1041550925926513E-3</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.75203686342592591</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0.75246493055555552</v>
+      </c>
+      <c r="I12" s="16">
+        <f t="shared" si="1"/>
+        <v>4.2806712962961679E-4</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0.7524649537037037</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0.75532780092592589</v>
+      </c>
+      <c r="L12" s="16">
+        <f t="shared" si="2"/>
+        <v>2.8628472222221868E-3</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0.75532785879629627</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0.75956967592592595</v>
+      </c>
+      <c r="O12" s="16">
+        <f t="shared" si="3"/>
+        <v>4.2418171296296769E-3</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="13">
+        <v>0.75089471064814817</v>
+      </c>
+      <c r="R12" s="13">
+        <v>0.75956973379629622</v>
+      </c>
+      <c r="S12" s="16">
+        <f t="shared" si="4"/>
+        <v>8.6750231481480533E-3</v>
+      </c>
+      <c r="U12" s="20"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.76319787037037035</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.76446400462962971</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2661342592593661E-3</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.76446402777777778</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.76489293981481488</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
+        <v>4.2891203703709913E-4</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.76489297453703697</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.76840118055555562</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="2"/>
+        <v>3.5082060185186448E-3</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0.76840121527777772</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.77285077546296288</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" si="3"/>
+        <v>4.4495601851851641E-3</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="5">
+        <v>0.76316594907407398</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0.7728508101851852</v>
+      </c>
+      <c r="S13" s="6">
+        <f t="shared" si="4"/>
+        <v>9.6848611111112204E-3</v>
+      </c>
+      <c r="U13" s="20"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="12">
+        <v>6</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.77304989583333328</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.77423392361111121</v>
+      </c>
+      <c r="F14" s="16">
+        <f t="shared" si="0"/>
+        <v>1.1840277777779296E-3</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.77423394675925927</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.77480922453703693</v>
+      </c>
+      <c r="I14" s="16">
+        <f t="shared" si="1"/>
+        <v>5.7527777777766076E-4</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.77480924768518522</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0.77845486111111117</v>
+      </c>
+      <c r="L14" s="16">
+        <f t="shared" si="2"/>
+        <v>3.6456134259259532E-3</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0.77845489583333327</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0.78323526620370376</v>
+      </c>
+      <c r="O14" s="16">
+        <f t="shared" si="3"/>
+        <v>4.7803703703704903E-3</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="13">
+        <v>0.77301702546296303</v>
+      </c>
+      <c r="R14" s="13">
+        <v>0.78323530092592586</v>
+      </c>
+      <c r="S14" s="16">
+        <f t="shared" si="4"/>
+        <v>1.0218275462962834E-2</v>
+      </c>
+      <c r="U14" s="20"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.78405665509259259</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.78529003472222225</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2333796296296606E-3</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.78529006944444435</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.78564601851851856</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
+        <v>3.5594907407421328E-4</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.78564604166666674</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.78836160879629624</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="2"/>
+        <v>2.7155671296295036E-3</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0.78836164351851856</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0.79303240740740744</v>
+      </c>
+      <c r="O15" s="6">
+        <f t="shared" si="3"/>
+        <v>4.6707638888888736E-3</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="5">
+        <v>0.78402290509259265</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0.79303370370370363</v>
+      </c>
+      <c r="S15" s="6">
+        <f t="shared" si="4"/>
+        <v>9.0107986111109817E-3</v>
+      </c>
+      <c r="U15" s="20"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
+        <v>8</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0.79604318287037035</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.79716134259259253</v>
+      </c>
+      <c r="F16" s="16">
+        <f t="shared" si="0"/>
+        <v>1.1181597222221784E-3</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0.79716137731481485</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0.79757130787037045</v>
+      </c>
+      <c r="I16" s="16">
+        <f t="shared" si="1"/>
+        <v>4.0993055555560431E-4</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0.79757135416666669</v>
+      </c>
+      <c r="K16" s="13">
+        <v>0.800440300925926</v>
+      </c>
+      <c r="L16" s="16">
+        <f t="shared" si="2"/>
+        <v>2.8689467592593054E-3</v>
+      </c>
+      <c r="M16" s="13">
+        <v>0.80044033564814809</v>
+      </c>
+      <c r="N16" s="13">
+        <v>0.80519219907407402</v>
+      </c>
+      <c r="O16" s="16">
+        <f t="shared" si="3"/>
+        <v>4.7518634259259285E-3</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="13">
+        <v>0.79601300925925933</v>
+      </c>
+      <c r="R16" s="13">
+        <v>0.80519223379629634</v>
+      </c>
+      <c r="S16" s="16">
+        <f t="shared" si="4"/>
+        <v>9.1792245370370118E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.80587207175925923</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.80715405092592596</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2819791666667246E-3</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.80715407407407413</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.80757525462962965</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="1"/>
+        <v>4.2118055555551148E-4</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.80757528935185185</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.8105953935185185</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="2"/>
+        <v>3.0201041666666484E-3</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0.81059541666666668</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0.81499768518518512</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" si="3"/>
+        <v>4.4022685185184374E-3</v>
+      </c>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="5">
+        <v>0.80583946759259251</v>
+      </c>
+      <c r="R17" s="5">
+        <v>0.81499770833333329</v>
+      </c>
+      <c r="S17" s="6">
+        <f t="shared" si="4"/>
+        <v>9.1582407407407862E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
+        <v>10</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0.81541530092592585</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.81646685185185186</v>
+      </c>
+      <c r="F18" s="16">
+        <f t="shared" si="0"/>
+        <v>1.0515509259260147E-3</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.81646688657407418</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.81685690972222214</v>
+      </c>
+      <c r="I18" s="16">
+        <f t="shared" si="1"/>
+        <v>3.9002314814795547E-4</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.81685693287037031</v>
+      </c>
+      <c r="K18" s="13">
+        <v>0.81997572916666661</v>
+      </c>
+      <c r="L18" s="16">
+        <f t="shared" si="2"/>
+        <v>3.1187962962963001E-3</v>
+      </c>
+      <c r="M18" s="13">
+        <v>0.81997576388888893</v>
+      </c>
+      <c r="N18" s="13">
+        <v>0.82465346064814815</v>
+      </c>
+      <c r="O18" s="16">
+        <f t="shared" si="3"/>
+        <v>4.67769675925922E-3</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="13">
+        <v>0.81537829861111122</v>
+      </c>
+      <c r="R18" s="13">
+        <v>0.82465348379629633</v>
+      </c>
+      <c r="S18" s="16">
+        <f t="shared" si="4"/>
+        <v>9.2751851851851086E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="11">
+        <f>MAX(F9:F18)</f>
+        <v>1.2819791666667246E-3</v>
+      </c>
+      <c r="G20" s="37"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="11">
+        <f>MAX(I9:I18)</f>
+        <v>5.7527777777766076E-4</v>
+      </c>
+      <c r="J20" s="37"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="11">
+        <f>MAX(L9:L18)</f>
+        <v>3.6456134259259532E-3</v>
+      </c>
+      <c r="M20" s="37"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="11">
+        <f>MAX(O9:O18)</f>
+        <v>4.8663888888889062E-3</v>
+      </c>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="11">
+        <f>MAX(S9:S18)</f>
+        <v>1.0218275462962834E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="15">
+        <f>MIN(F10:F19)</f>
+        <v>1.0515509259260147E-3</v>
+      </c>
+      <c r="G21" s="37"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="15">
+        <f>MIN(I10:I19)</f>
+        <v>3.5594907407421328E-4</v>
+      </c>
+      <c r="J21" s="37"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="15">
+        <f>MIN(L10:L19)</f>
+        <v>2.5430092592592102E-3</v>
+      </c>
+      <c r="M21" s="37"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="15">
+        <f>MIN(O10:O19)</f>
+        <v>4.2418171296296769E-3</v>
+      </c>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="15">
+        <f>MIN(S10:S19)</f>
+        <v>8.6750231481480533E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="11">
+        <f>AVERAGE(F9:F18)</f>
+        <v>1.1785543981481794E-3</v>
+      </c>
+      <c r="G22" s="37"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="11">
+        <f>AVERAGE(I9:I18)</f>
+        <v>4.4173379629630638E-4</v>
+      </c>
+      <c r="J22" s="37"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="11">
+        <f>AVERAGE(L9:L18)</f>
+        <v>2.9816967592592447E-3</v>
+      </c>
+      <c r="M22" s="37"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="11">
+        <f>AVERAGE(O9:O18)</f>
+        <v>4.5870219907407474E-3</v>
+      </c>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="11">
+        <f>AVERAGE(S9:S18)</f>
+        <v>9.2233425925925764E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="I23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="S23" s="9"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD89167-4AB3-494D-B822-89B1E5637C08}">
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2451,36 +4094,36 @@
       <c r="D5" s="2"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30" t="s">
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="27" t="s">
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="29"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="36"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="27" t="s">
+      <c r="Q7" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="28"/>
-      <c r="S7" s="29"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="36"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
@@ -3079,7 +4722,9 @@
       <c r="B18" s="12">
         <v>10</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="D18" s="13">
         <v>0.50224813657407408</v>
       </c>
@@ -3136,34 +4781,34 @@
       <c r="B20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="11">
         <f>MAX(F9:F18)</f>
         <v>5.563541666666616E-4</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="33"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="39"/>
       <c r="I20" s="11">
         <f>MAX(I9:I18)</f>
         <v>3.8163194444440496E-4</v>
       </c>
-      <c r="J20" s="31"/>
-      <c r="K20" s="33"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="39"/>
       <c r="L20" s="11">
         <f>MAX(L9:L18)</f>
         <v>3.4750810185185665E-3</v>
       </c>
-      <c r="M20" s="31"/>
-      <c r="N20" s="33"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="39"/>
       <c r="O20" s="11">
         <f>MAX(O9:O18)</f>
         <v>5.1183217592591923E-3</v>
       </c>
       <c r="P20" s="14"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="33"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="39"/>
       <c r="S20" s="11">
         <f>MAX(S9:S18)</f>
         <v>8.231377314814825E-3</v>
@@ -3173,34 +4818,34 @@
       <c r="B21" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="15">
         <f>MIN(F10:F19)</f>
         <v>4.8368055555558787E-4</v>
       </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="33"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="39"/>
       <c r="I21" s="15">
         <f>MIN(I10:I19)</f>
         <v>1.5902777777765387E-4</v>
       </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="33"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="39"/>
       <c r="L21" s="15">
         <f>MIN(L10:L19)</f>
         <v>1.9432754629629635E-3</v>
       </c>
-      <c r="M21" s="31"/>
-      <c r="N21" s="33"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="39"/>
       <c r="O21" s="15">
         <f>MIN(O10:O19)</f>
         <v>3.3687384259258879E-3</v>
       </c>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="33"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="39"/>
       <c r="S21" s="15">
         <f>MIN(S10:S19)</f>
         <v>5.9887847222223067E-3</v>
@@ -3210,34 +4855,34 @@
       <c r="B22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="11">
         <f>AVERAGE(F9:F18)</f>
         <v>5.3463541666667002E-4</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="33"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="11">
         <f>AVERAGE(I9:I18)</f>
         <v>2.056342592592496E-4</v>
       </c>
-      <c r="J22" s="31"/>
-      <c r="K22" s="33"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="39"/>
       <c r="L22" s="11">
         <f>AVERAGE(L9:L18)</f>
         <v>2.312924768518518E-3</v>
       </c>
-      <c r="M22" s="31"/>
-      <c r="N22" s="33"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="39"/>
       <c r="O22" s="11">
         <f>AVERAGE(O9:O18)</f>
         <v>3.874740740740748E-3</v>
       </c>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="33"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="39"/>
       <c r="S22" s="11">
         <f>AVERAGE(S9:S18)</f>
         <v>6.9282534722222315E-3</v>
@@ -3250,7 +4895,7 @@
       <c r="S23" s="9"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="28" t="s">
         <v>41</v>
       </c>
     </row>
